--- a/data/experiment2/node5/c_iter.xlsx
+++ b/data/experiment2/node5/c_iter.xlsx
@@ -9620,7 +9620,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>0.3687234695496014</v>
@@ -9644,7 +9644,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BS2" t="n">
         <v>0.3687234695496014</v>
@@ -9671,10 +9671,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
         <v>0.3687234695496014</v>
@@ -9692,7 +9692,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CI2" t="n">
         <v>0.3687234695496014</v>
@@ -9704,7 +9704,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
         <v>0.3687234695496014</v>
@@ -9713,10 +9713,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQ2" t="n">
         <v>0.3687234695496014</v>
@@ -9749,7 +9749,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DB2" t="n">
         <v>0.3687234695496014</v>
@@ -9761,7 +9761,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0.3687234695496014</v>
@@ -9776,7 +9776,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DK2" t="n">
         <v>0.3687234695496014</v>
@@ -9800,25 +9800,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DY2" t="n">
         <v>0.3687234695496014</v>
@@ -9830,7 +9830,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="EC2" t="n">
         <v>0.3687234695496014</v>
@@ -9839,7 +9839,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="EF2" t="n">
         <v>0.3687234695496014</v>
@@ -9857,13 +9857,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="EL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="EN2" t="n">
         <v>0.3687234695496014</v>
@@ -9875,7 +9875,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
         <v>0.3687234695496014</v>
@@ -9884,10 +9884,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
         <v>0.3687234695496014</v>
@@ -9908,7 +9908,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="FC2" t="n">
         <v>0.3687234695496014</v>
@@ -9950,7 +9950,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="FQ2" t="n">
         <v>0.3687234695496014</v>
@@ -9959,7 +9959,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="FT2" t="n">
         <v>0.3687234695496014</v>
@@ -9971,7 +9971,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="FX2" t="n">
         <v>0.3687234695496014</v>
@@ -9986,7 +9986,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="GC2" t="n">
         <v>0.3687234695496014</v>
@@ -10013,7 +10013,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="GL2" t="n">
         <v>0.3687234695496014</v>
@@ -10055,7 +10055,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="GZ2" t="n">
         <v>0.3687234695496014</v>
@@ -10073,7 +10073,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="HF2" t="n">
         <v>0.3687234695496014</v>
@@ -10091,7 +10091,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="HK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="HL2" t="n">
         <v>0.3687234695496014</v>
@@ -10163,10 +10163,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="II2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="IK2" t="n">
         <v>0.3687234695496014</v>
@@ -10190,7 +10190,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="IS2" t="n">
         <v>0.3687234695496014</v>
@@ -10226,7 +10226,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="JE2" t="n">
         <v>0.3687234695496014</v>
@@ -10238,7 +10238,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="JI2" t="n">
         <v>0.3687234695496014</v>
@@ -10247,7 +10247,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="JK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="JL2" t="n">
         <v>0.3687234695496014</v>
@@ -10334,7 +10334,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="KN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="KO2" t="n">
         <v>0.3687234695496014</v>
@@ -10349,7 +10349,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="KS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="KT2" t="n">
         <v>0.3687234695496014</v>
@@ -10364,7 +10364,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="KY2" t="n">
         <v>0.3687234695496014</v>
@@ -10382,13 +10382,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="LD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="LE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="LF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="LG2" t="n">
         <v>0.3687234695496014</v>
@@ -10415,7 +10415,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="LP2" t="n">
         <v>0.3687234695496014</v>
@@ -10445,7 +10445,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="LZ2" t="n">
         <v>0.3687234695496014</v>
@@ -10460,7 +10460,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="MD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ME2" t="n">
         <v>0.3687234695496014</v>
@@ -10484,13 +10484,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="MM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="MO2" t="n">
         <v>0.3687234695496014</v>
@@ -10520,7 +10520,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="MX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="MY2" t="n">
         <v>0.3687234695496014</v>
@@ -10532,7 +10532,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="NB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="NC2" t="n">
         <v>0.3687234695496014</v>
@@ -10541,7 +10541,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="NF2" t="n">
         <v>0.3687234695496014</v>
@@ -10553,13 +10553,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="NJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="NL2" t="n">
         <v>0.3687234695496014</v>
@@ -10568,13 +10568,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="NN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="NO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="NP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="NQ2" t="n">
         <v>0.3687234695496014</v>
@@ -10631,7 +10631,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="OJ2" t="n">
         <v>0.3687234695496014</v>
@@ -10643,7 +10643,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ON2" t="n">
         <v>0.3687234695496014</v>
@@ -10655,7 +10655,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="OR2" t="n">
         <v>0.3687234695496014</v>
@@ -10709,25 +10709,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="PJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="PL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="PN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="PO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="PP2" t="n">
         <v>0.3687234695496014</v>
@@ -10760,7 +10760,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="QA2" t="n">
         <v>0.3687234695496014</v>
@@ -10778,16 +10778,16 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="QF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="QG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="QH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="QJ2" t="n">
         <v>0.3687234695496014</v>
@@ -10802,7 +10802,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="QN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="QO2" t="n">
         <v>0.3687234695496014</v>
@@ -10835,19 +10835,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="QY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="QZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="RA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="RB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="RC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="RD2" t="n">
         <v>0.3687234695496014</v>
@@ -10901,7 +10901,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="RV2" t="n">
         <v>0.3687234695496014</v>
@@ -10910,7 +10910,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="RX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="RY2" t="n">
         <v>0.3687234695496014</v>
@@ -10928,7 +10928,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="SE2" t="n">
         <v>0.3687234695496014</v>
@@ -10937,7 +10937,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="SG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="SH2" t="n">
         <v>0.3687234695496014</v>
@@ -10979,7 +10979,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="SV2" t="n">
         <v>0.3687234695496014</v>
@@ -11000,13 +11000,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="TB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="TC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="TD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="TE2" t="n">
         <v>0.3687234695496014</v>
@@ -11039,7 +11039,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="TO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="TP2" t="n">
         <v>0.3687234695496014</v>
@@ -11063,7 +11063,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="TW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="TX2" t="n">
         <v>0.3687234695496014</v>
@@ -11078,13 +11078,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="UB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="UC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="UD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="UE2" t="n">
         <v>0.3687234695496014</v>
@@ -11147,7 +11147,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="UY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="UZ2" t="n">
         <v>0.3687234695496014</v>
@@ -11171,7 +11171,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="VG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="VH2" t="n">
         <v>0.3687234695496014</v>
@@ -11219,7 +11219,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="VW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="VX2" t="n">
         <v>0.3687234695496014</v>
@@ -11246,7 +11246,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="WF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="WG2" t="n">
         <v>0.3687234695496014</v>
@@ -11258,7 +11258,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="WJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="WK2" t="n">
         <v>0.3687234695496014</v>
@@ -11270,7 +11270,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="WN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="WO2" t="n">
         <v>0.3687234695496014</v>
@@ -11297,7 +11297,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="WW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="WX2" t="n">
         <v>0.3687234695496014</v>
@@ -11348,7 +11348,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="XN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="XO2" t="n">
         <v>0.3687234695496014</v>
@@ -11390,7 +11390,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="YB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="YC2" t="n">
         <v>0.3687234695496014</v>
@@ -11402,7 +11402,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="YF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="YG2" t="n">
         <v>0.3687234695496014</v>
@@ -11447,16 +11447,16 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="YU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="YV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="YW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="YX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="YY2" t="n">
         <v>0.3687234695496014</v>
@@ -11477,7 +11477,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ZE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ZF2" t="n">
         <v>0.3687234695496014</v>
@@ -11513,13 +11513,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ZQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ZR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ZS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ZT2" t="n">
         <v>0.3687234695496014</v>
@@ -11549,7 +11549,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AAC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AAD2" t="n">
         <v>0.3687234695496014</v>
@@ -11558,7 +11558,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AAF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AAG2" t="n">
         <v>0.3687234695496014</v>
@@ -11582,7 +11582,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AAN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AAO2" t="n">
         <v>0.3687234695496014</v>
@@ -11594,10 +11594,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AAR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AAS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AAT2" t="n">
         <v>0.3687234695496014</v>
@@ -11642,7 +11642,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ABH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ABI2" t="n">
         <v>0.3687234695496014</v>
@@ -11660,10 +11660,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ABN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ABO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ABP2" t="n">
         <v>0.3687234695496014</v>
@@ -11678,7 +11678,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ABT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ABU2" t="n">
         <v>0.3687234695496014</v>
@@ -11708,7 +11708,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ACD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ACE2" t="n">
         <v>0.3687234695496014</v>
@@ -11747,19 +11747,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ACQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ACR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ACS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ACT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ACU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ACV2" t="n">
         <v>0.3687234695496014</v>
@@ -11786,7 +11786,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ADD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ADE2" t="n">
         <v>0.3687234695496014</v>
@@ -11801,13 +11801,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ADI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ADJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ADK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ADL2" t="n">
         <v>0.3687234695496014</v>
@@ -11840,7 +11840,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ADV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ADW2" t="n">
         <v>0.3687234695496014</v>
@@ -11879,7 +11879,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AEI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AEJ2" t="n">
         <v>0.3687234695496014</v>
@@ -11900,19 +11900,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AEP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AEQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AER2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AES2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AEU2" t="n">
         <v>0.3687234695496014</v>
@@ -11924,7 +11924,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AEX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AEY2" t="n">
         <v>0.3687234695496014</v>
@@ -11936,7 +11936,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AFC2" t="n">
         <v>0.3687234695496014</v>
@@ -12002,7 +12002,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AFX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AFY2" t="n">
         <v>0.3687234695496014</v>
@@ -12056,13 +12056,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AGP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AGQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AGR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AGS2" t="n">
         <v>0.3687234695496014</v>
@@ -12080,7 +12080,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AGX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AGY2" t="n">
         <v>0.3687234695496014</v>
@@ -12089,7 +12089,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AHA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AHB2" t="n">
         <v>0.3687234695496014</v>
@@ -12104,7 +12104,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AHF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AHG2" t="n">
         <v>0.3687234695496014</v>
@@ -12182,13 +12182,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AIF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AIG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AII2" t="n">
         <v>0.3687234695496014</v>
@@ -12215,13 +12215,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AIR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AIT2" t="n">
         <v>0.3687234695496014</v>
@@ -12236,7 +12236,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AIX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AIY2" t="n">
         <v>0.3687234695496014</v>
@@ -12257,10 +12257,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AJE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AJF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AJG2" t="n">
         <v>0.3687234695496014</v>
@@ -12275,7 +12275,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AJK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AJL2" t="n">
         <v>0.3687234695496014</v>
@@ -12302,7 +12302,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AJT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AJU2" t="n">
         <v>0.3687234695496014</v>
@@ -12422,13 +12422,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ALH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ALI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ALJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ALK2" t="n">
         <v>0.3687234695496014</v>
@@ -12464,7 +12464,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ALV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ALW2" t="n">
         <v>0.3687234695496014</v>
@@ -12488,7 +12488,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AMD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AME2" t="n">
         <v>0.3687234695496014</v>
@@ -12515,25 +12515,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AMM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AMN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AMO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AMP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AMQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AMR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AMS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AMT2" t="n">
         <v>0.3687234695496014</v>
@@ -12554,7 +12554,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AMZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ANA2" t="n">
         <v>0.3687234695496014</v>
@@ -12584,7 +12584,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ANJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ANK2" t="n">
         <v>0.3687234695496014</v>
@@ -12599,13 +12599,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ANO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ANP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ANQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ANR2" t="n">
         <v>0.3687234695496014</v>
@@ -12671,7 +12671,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AOM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AON2" t="n">
         <v>0.3687234695496014</v>
@@ -12698,7 +12698,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AOV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AOW2" t="n">
         <v>0.3687234695496014</v>
@@ -12779,7 +12779,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="APW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="APX2" t="n">
         <v>0.3687234695496014</v>
@@ -12821,7 +12821,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AQK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AQL2" t="n">
         <v>0.3687234695496014</v>
@@ -12830,13 +12830,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AQN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AQO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AQP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AQQ2" t="n">
         <v>0.3687234695496014</v>
@@ -12857,7 +12857,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AQW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AQX2" t="n">
         <v>0.3687234695496014</v>
@@ -12875,13 +12875,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ARC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ARD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ARE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ARF2" t="n">
         <v>0.3687234695496014</v>
@@ -12893,13 +12893,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ARI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ARJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ARK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ARL2" t="n">
         <v>0.3687234695496014</v>
@@ -12923,7 +12923,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ARS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ART2" t="n">
         <v>0.3687234695496014</v>
@@ -12932,7 +12932,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ARV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ARW2" t="n">
         <v>0.3687234695496014</v>
@@ -12977,7 +12977,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ASK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ASL2" t="n">
         <v>0.3687234695496014</v>
@@ -13013,7 +13013,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ASW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ASX2" t="n">
         <v>0.3687234695496014</v>
@@ -13043,7 +13043,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ATG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ATH2" t="n">
         <v>0.3687234695496014</v>
@@ -13097,7 +13097,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ATY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ATZ2" t="n">
         <v>0.3687234695496014</v>
@@ -13106,7 +13106,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AUB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AUC2" t="n">
         <v>0.3687234695496014</v>
@@ -13124,7 +13124,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AUH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AUI2" t="n">
         <v>0.3687234695496014</v>
@@ -13172,7 +13172,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AUX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AUY2" t="n">
         <v>0.3687234695496014</v>
@@ -13205,7 +13205,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AVI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AVJ2" t="n">
         <v>0.3687234695496014</v>
@@ -13214,7 +13214,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AVL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AVM2" t="n">
         <v>0.3687234695496014</v>
@@ -13241,7 +13241,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AVU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AVV2" t="n">
         <v>0.3687234695496014</v>
@@ -13265,7 +13265,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AWC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AWD2" t="n">
         <v>0.3687234695496014</v>
@@ -13289,7 +13289,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AWK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AWL2" t="n">
         <v>0.3687234695496014</v>
@@ -13322,7 +13322,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AWV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AWW2" t="n">
         <v>0.3687234695496014</v>
@@ -13349,7 +13349,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AXE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AXF2" t="n">
         <v>0.3687234695496014</v>
@@ -13361,7 +13361,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AXI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AXJ2" t="n">
         <v>0.3687234695496014</v>
@@ -13427,7 +13427,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AYE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AYF2" t="n">
         <v>0.3687234695496014</v>
@@ -13436,34 +13436,34 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AYH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AYI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AYJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AYK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AYL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AYM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AYN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AYO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AYP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AYQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AYR2" t="n">
         <v>0.3687234695496014</v>
@@ -13514,19 +13514,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AZH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AZI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AZJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AZK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AZL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AZM2" t="n">
         <v>0.3687234695496014</v>
@@ -13541,7 +13541,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AZQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AZR2" t="n">
         <v>0.3687234695496014</v>
@@ -13550,13 +13550,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AZT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AZU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AZV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AZW2" t="n">
         <v>0.3687234695496014</v>
@@ -13628,13 +13628,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BAT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BAU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BAV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BAW2" t="n">
         <v>0.3687234695496014</v>
@@ -13652,7 +13652,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BBB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BBC2" t="n">
         <v>0.3687234695496014</v>
@@ -13670,7 +13670,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BBH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BBI2" t="n">
         <v>0.3687234695496014</v>
@@ -13700,10 +13700,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BBR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BBS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BBT2" t="n">
         <v>0.3687234695496014</v>
@@ -13733,7 +13733,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BCC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BCD2" t="n">
         <v>0.3687234695496014</v>
@@ -13781,25 +13781,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BCS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BCT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BCU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BCV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BCW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BCX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BCY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BCZ2" t="n">
         <v>0.3687234695496014</v>
@@ -13829,25 +13829,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BDI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BDJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BDK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BDL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BDM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BDN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BDO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BDP2" t="n">
         <v>0.3687234695496014</v>
@@ -13901,19 +13901,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BEG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BEH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BEI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BEJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BEK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BEL2" t="n">
         <v>0.3687234695496014</v>
@@ -13943,13 +13943,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BEU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BEV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BEW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BEX2" t="n">
         <v>0.3687234695496014</v>
@@ -13970,13 +13970,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BFD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BFE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BFF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BFG2" t="n">
         <v>0.3687234695496014</v>
@@ -14000,7 +14000,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BFN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BFO2" t="n">
         <v>0.3687234695496014</v>
@@ -14024,7 +14024,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BFV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BFW2" t="n">
         <v>0.3687234695496014</v>
@@ -14042,7 +14042,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BGB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BGC2" t="n">
         <v>0.3687234695496014</v>
@@ -14057,19 +14057,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BGG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BGH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BGI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BGJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BGK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BGL2" t="n">
         <v>0.3687234695496014</v>
@@ -14081,7 +14081,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BGO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BGP2" t="n">
         <v>0.3687234695496014</v>
@@ -14144,7 +14144,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BHJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BHK2" t="n">
         <v>0.3687234695496014</v>
@@ -14177,25 +14177,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BHU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BHV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BHW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BHX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BHY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BHZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BIA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BIB2" t="n">
         <v>0.3687234695496014</v>
@@ -14234,7 +14234,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BIN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BIO2" t="n">
         <v>0.3687234695496014</v>
@@ -14252,7 +14252,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BIT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BIU2" t="n">
         <v>0.3687234695496014</v>
@@ -14264,7 +14264,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BIX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BIY2" t="n">
         <v>0.3687234695496014</v>
@@ -14276,7 +14276,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BJB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJC2" t="n">
         <v>0.3687234695496014</v>
@@ -14285,22 +14285,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BJE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BJG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BJI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BJJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BJK2" t="n">
         <v>0.3687234695496014</v>
@@ -14315,7 +14315,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BJO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJP2" t="n">
         <v>0.3687234695496014</v>
@@ -14324,7 +14324,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BJR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BJS2" t="n">
         <v>0.3687234695496014</v>
@@ -14390,13 +14390,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BKN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BKO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BKP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BKQ2" t="n">
         <v>0.3687234695496014</v>
@@ -14429,25 +14429,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BLA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BLB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BLC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BLD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BLE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BLF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BLG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BLH2" t="n">
         <v>0.3687234695496014</v>
@@ -14489,10 +14489,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BLU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BLV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BLW2" t="n">
         <v>0.3687234695496014</v>
@@ -14513,7 +14513,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BMC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BMD2" t="n">
         <v>0.3687234695496014</v>
@@ -14525,25 +14525,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BMG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BMH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BMI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BMJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BMK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BML2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BMM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BMN2" t="n">
         <v>0.3687234695496014</v>
@@ -14558,7 +14558,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BMR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BMS2" t="n">
         <v>0.3687234695496014</v>
@@ -14585,7 +14585,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BNA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BNB2" t="n">
         <v>0.3687234695496014</v>
@@ -14594,7 +14594,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BND2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BNE2" t="n">
         <v>0.3687234695496014</v>
@@ -14606,7 +14606,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BNH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BNI2" t="n">
         <v>0.3687234695496014</v>
@@ -14660,19 +14660,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BNZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BOB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BOD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOE2" t="n">
         <v>0.3687234695496014</v>
@@ -14690,13 +14690,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BOJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BOL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOM2" t="n">
         <v>0.3687234695496014</v>
@@ -14714,7 +14714,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BOR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOS2" t="n">
         <v>0.3687234695496014</v>
@@ -14726,13 +14726,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BOV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BOX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOY2" t="n">
         <v>0.3687234695496014</v>
@@ -14765,22 +14765,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BPI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BPJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BPK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BPL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BPM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BPN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BPO2" t="n">
         <v>0.3687234695496014</v>
@@ -14801,37 +14801,37 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BPU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BPV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BPW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BPX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BPY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BPZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BQA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BQB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BQC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BQD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BQE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BQF2" t="n">
         <v>0.3687234695496014</v>
@@ -14858,7 +14858,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BQN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BQO2" t="n">
         <v>0.3687234695496014</v>
@@ -14879,7 +14879,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BQU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BQV2" t="n">
         <v>0.3687234695496014</v>
@@ -14894,7 +14894,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BQZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BRA2" t="n">
         <v>0.3687234695496014</v>
@@ -14903,7 +14903,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BRD2" t="n">
         <v>0.3687234695496014</v>
@@ -14921,7 +14921,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BRJ2" t="n">
         <v>0.3687234695496014</v>
@@ -14945,7 +14945,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BRR2" t="n">
         <v>0.3687234695496014</v>
@@ -14954,13 +14954,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BRU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BRV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BRW2" t="n">
         <v>0.3687234695496014</v>
@@ -14972,13 +14972,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BSA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BSB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BSC2" t="n">
         <v>0.3687234695496014</v>
@@ -14987,7 +14987,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BSE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BSF2" t="n">
         <v>0.3687234695496014</v>
@@ -15029,7 +15029,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BSS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BST2" t="n">
         <v>0.3687234695496014</v>
@@ -15050,37 +15050,37 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BSZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BTA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BTH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTK2" t="n">
         <v>0.3687234695496014</v>
@@ -15119,19 +15119,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BTW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BUA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUB2" t="n">
         <v>0.3687234695496014</v>
@@ -15149,7 +15149,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BUG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUH2" t="n">
         <v>0.3687234695496014</v>
@@ -15164,43 +15164,43 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BUL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BUM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BUN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BUO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BUQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BUS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BUU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BUW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BUX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BUY2" t="n">
         <v>0.3687234695496014</v>
@@ -15212,19 +15212,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BVB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BVD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BVF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVG2" t="n">
         <v>0.3687234695496014</v>
@@ -15242,10 +15242,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BVL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVN2" t="n">
         <v>0.3687234695496014</v>
@@ -15254,22 +15254,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BVP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BVU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVV2" t="n">
         <v>0.3687234695496014</v>
@@ -15281,7 +15281,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BVY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVZ2" t="n">
         <v>0.3687234695496014</v>
@@ -15299,19 +15299,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BWE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BWG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BWI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWJ2" t="n">
         <v>0.3687234695496014</v>
@@ -15335,13 +15335,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BWQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BWR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BWS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BWT2" t="n">
         <v>0.3687234695496014</v>
@@ -15383,7 +15383,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BXG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BXH2" t="n">
         <v>0.3687234695496014</v>
@@ -15392,13 +15392,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BXJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BXK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BXL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BXM2" t="n">
         <v>0.3687234695496014</v>
@@ -15455,13 +15455,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BYE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BYF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BYG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYH2" t="n">
         <v>0.3687234695496014</v>
@@ -15473,7 +15473,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BYK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYL2" t="n">
         <v>0.3687234695496014</v>
@@ -15503,13 +15503,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BYU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BYW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYX2" t="n">
         <v>0.3687234695496014</v>
@@ -15539,13 +15539,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BZG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BZH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BZI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BZJ2" t="n">
         <v>0.3687234695496014</v>
@@ -15560,7 +15560,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BZN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BZO2" t="n">
         <v>0.3687234695496014</v>
@@ -15569,7 +15569,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BZQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BZR2" t="n">
         <v>0.3687234695496014</v>
@@ -15590,7 +15590,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BZX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BZY2" t="n">
         <v>0.3687234695496014</v>
@@ -15620,10 +15620,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CAH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAJ2" t="n">
         <v>0.3687234695496014</v>
@@ -15635,10 +15635,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CAM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAO2" t="n">
         <v>0.3687234695496014</v>
@@ -15647,28 +15647,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CAQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CAV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CAX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAY2" t="n">
         <v>0.3687234695496014</v>
@@ -15680,31 +15680,31 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CBB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CBD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CBF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CBH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CBJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CBK2" t="n">
         <v>0.3687234695496014</v>
@@ -15722,34 +15722,34 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CBP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CBQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CBS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CBU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CBW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CBY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBZ2" t="n">
         <v>0.3687234695496014</v>
@@ -15761,13 +15761,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CCC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CCD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CCE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CCF2" t="n">
         <v>0.3687234695496014</v>
@@ -15779,7 +15779,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CCI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CCJ2" t="n">
         <v>0.3687234695496014</v>
@@ -15797,13 +15797,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CCO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CCQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCR2" t="n">
         <v>0.3687234695496014</v>
@@ -15815,7 +15815,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CCU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCV2" t="n">
         <v>0.3687234695496014</v>
@@ -15830,7 +15830,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CCZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDA2" t="n">
         <v>0.3687234695496014</v>
@@ -15839,7 +15839,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CDC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDD2" t="n">
         <v>0.3687234695496014</v>
@@ -15857,7 +15857,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CDI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDJ2" t="n">
         <v>0.3687234695496014</v>
@@ -15875,13 +15875,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CDO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CDQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDR2" t="n">
         <v>0.3687234695496014</v>
@@ -15893,19 +15893,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CDU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CDW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDZ2" t="n">
         <v>0.3687234695496014</v>
@@ -15917,7 +15917,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CEC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CED2" t="n">
         <v>0.3687234695496014</v>
@@ -15926,7 +15926,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CEF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CEG2" t="n">
         <v>0.3687234695496014</v>
@@ -15938,7 +15938,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CEJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CEK2" t="n">
         <v>0.3687234695496014</v>
@@ -15953,13 +15953,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CEO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CEP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CEQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CER2" t="n">
         <v>0.3687234695496014</v>
@@ -15992,28 +15992,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CFB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFJ2" t="n">
         <v>0.3687234695496014</v>
@@ -16025,25 +16025,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CFM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFT2" t="n">
         <v>0.3687234695496014</v>
@@ -16055,19 +16055,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CFW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CGB2" t="n">
         <v>0.3687234695496014</v>
@@ -16076,31 +16076,31 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CGD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CGF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CGH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CGJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CGL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGM2" t="n">
         <v>0.3687234695496014</v>
@@ -16112,7 +16112,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CGP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGQ2" t="n">
         <v>0.3687234695496014</v>
@@ -16124,10 +16124,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CGT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CGV2" t="n">
         <v>0.3687234695496014</v>
@@ -16139,7 +16139,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CGY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGZ2" t="n">
         <v>0.3687234695496014</v>
@@ -16160,7 +16160,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CHF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHG2" t="n">
         <v>0.3687234695496014</v>
@@ -16172,34 +16172,34 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CHJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CHK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CHL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CHM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CHN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CHO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CHQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CHS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHT2" t="n">
         <v>0.3687234695496014</v>
@@ -16211,76 +16211,76 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CHW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CHY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CIA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CIC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CID2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CIE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CIG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CIH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CII2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CIJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CIK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CIM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CIO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CIQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CIS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CIU2" t="n">
         <v>0.3687234695496014</v>
@@ -16298,13 +16298,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CIZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CJA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CJC2" t="n">
         <v>0.3687234695496014</v>
@@ -16316,13 +16316,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CJF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CJH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJI2" t="n">
         <v>0.3687234695496014</v>
@@ -16337,13 +16337,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CJM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CJN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CJO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CJP2" t="n">
         <v>0.3687234695496014</v>
@@ -16355,13 +16355,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CJS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CJU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJV2" t="n">
         <v>0.3687234695496014</v>
@@ -16379,13 +16379,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CKA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CKB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKD2" t="n">
         <v>0.3687234695496014</v>
@@ -16412,22 +16412,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CKL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CKM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKR2" t="n">
         <v>0.3687234695496014</v>
@@ -16436,13 +16436,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CKT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CKU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CKW2" t="n">
         <v>0.3687234695496014</v>
@@ -16466,7 +16466,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CLD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CLE2" t="n">
         <v>0.3687234695496014</v>
@@ -16478,13 +16478,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CLH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CLI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CLJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CLK2" t="n">
         <v>0.3687234695496014</v>
@@ -16496,7 +16496,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CLN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CLO2" t="n">
         <v>0.3687234695496014</v>
@@ -16523,7 +16523,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CLW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CLX2" t="n">
         <v>0.3687234695496014</v>
@@ -16541,7 +16541,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CMC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CMD2" t="n">
         <v>0.3687234695496014</v>
@@ -16553,7 +16553,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CMG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMH2" t="n">
         <v>0.3687234695496014</v>
@@ -16568,19 +16568,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CML2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CMM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CMN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CMP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMQ2" t="n">
         <v>0.3687234695496014</v>
@@ -16589,19 +16589,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CMS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CMT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CMU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CMV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CMW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CMX2" t="n">
         <v>0.3687234695496014</v>
@@ -16616,7 +16616,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNC2" t="n">
         <v>0.3687234695496014</v>
@@ -16646,7 +16646,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CNM2" t="n">
         <v>0.3687234695496014</v>
@@ -16661,19 +16661,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CNR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CNT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CNU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CNV2" t="n">
         <v>0.3687234695496014</v>
@@ -16682,40 +16682,40 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNY2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CNZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="COA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="COB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="COC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="COD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="COE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="COF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="COG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="COH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="COI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="COJ2" t="n">
         <v>0.3687234695496014</v>
@@ -16727,13 +16727,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="COM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CON2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="COO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="COP2" t="n">
         <v>0.3687234695496014</v>
@@ -16763,7 +16763,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="COY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="COZ2" t="n">
         <v>0.3687234695496014</v>
@@ -16772,25 +16772,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CPB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CPC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CPD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CPE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CPF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CPG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CPH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CPI2" t="n">
         <v>0.3687234695496014</v>
@@ -16811,7 +16811,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CPO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CPP2" t="n">
         <v>0.3687234695496014</v>
@@ -16823,13 +16823,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CPS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CPT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CPU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CPV2" t="n">
         <v>0.3687234695496014</v>
@@ -16841,7 +16841,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CPY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CPZ2" t="n">
         <v>0.3687234695496014</v>
@@ -16856,10 +16856,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CQD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQF2" t="n">
         <v>0.3687234695496014</v>
@@ -16871,13 +16871,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CQI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CQK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQL2" t="n">
         <v>0.3687234695496014</v>
@@ -16886,43 +16886,43 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CQN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CQP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CQR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CQT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CQY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRA2" t="n">
         <v>0.3687234695496014</v>
@@ -16937,22 +16937,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CRE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CRF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CRH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CRI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CRJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRK2" t="n">
         <v>0.3687234695496014</v>
@@ -16985,19 +16985,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CRU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CRW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CRY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRZ2" t="n">
         <v>0.3687234695496014</v>
@@ -17006,7 +17006,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CSB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSC2" t="n">
         <v>0.3687234695496014</v>
@@ -17018,40 +17018,40 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CSF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CSJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CSR2" t="n">
         <v>0.3687234695496014</v>
@@ -17066,7 +17066,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CSV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CSW2" t="n">
         <v>0.3687234695496014</v>
@@ -17075,10 +17075,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CSY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CTA2" t="n">
         <v>0.3687234695496014</v>
@@ -17096,7 +17096,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CTF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CTG2" t="n">
         <v>0.3687234695496014</v>
@@ -17108,22 +17108,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CTJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CTK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CTL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CTM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CTN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CTO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CTP2" t="n">
         <v>0.3687234695496014</v>
@@ -17135,7 +17135,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CTS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CTT2" t="n">
         <v>0.3687234695496014</v>
@@ -17171,7 +17171,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CUE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUF2" t="n">
         <v>0.3687234695496014</v>
@@ -17186,25 +17186,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CUJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CUK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CUM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CUO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CUP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CUQ2" t="n">
         <v>0.3687234695496014</v>
@@ -17222,7 +17222,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CUV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CUW2" t="n">
         <v>0.3687234695496014</v>
@@ -17243,40 +17243,40 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CVC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVO2" t="n">
         <v>0.3687234695496014</v>
@@ -17294,13 +17294,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CVT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVW2" t="n">
         <v>0.3687234695496014</v>
@@ -17312,13 +17312,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CVZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWC2" t="n">
         <v>0.3687234695496014</v>
@@ -17327,25 +17327,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CWE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWL2" t="n">
         <v>0.3687234695496014</v>
@@ -17357,19 +17357,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CWO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWT2" t="n">
         <v>0.3687234695496014</v>
@@ -17378,19 +17378,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CWV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXA2" t="n">
         <v>0.3687234695496014</v>
@@ -17399,7 +17399,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CXC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXD2" t="n">
         <v>0.3687234695496014</v>
@@ -17411,7 +17411,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CXG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXH2" t="n">
         <v>0.3687234695496014</v>
@@ -17420,37 +17420,37 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CXJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CXR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CXT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXU2" t="n">
         <v>0.3687234695496014</v>
@@ -17465,22 +17465,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CXY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CYA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CYC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CYE2" t="n">
         <v>0.3687234695496014</v>
@@ -17498,10 +17498,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CYJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CYK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYL2" t="n">
         <v>0.3687234695496014</v>
@@ -17534,7 +17534,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CYV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CYW2" t="n">
         <v>0.3687234695496014</v>
@@ -17552,7 +17552,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CZB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZC2" t="n">
         <v>0.3687234695496014</v>
@@ -17570,7 +17570,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CZH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZI2" t="n">
         <v>0.3687234695496014</v>
@@ -17588,25 +17588,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CZN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CZP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZU2" t="n">
         <v>0.3687234695496014</v>
@@ -17615,22 +17615,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CZW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DAA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DAC2" t="n">
         <v>0.3687234695496014</v>
@@ -17645,25 +17645,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DAG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DAI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DAK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DAM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAN2" t="n">
         <v>0.3687234695496014</v>
@@ -17678,28 +17678,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DAR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DAT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DAU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DAV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DAW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DAY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAZ2" t="n">
         <v>0.3687234695496014</v>
@@ -17726,7 +17726,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DBH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBI2" t="n">
         <v>0.3687234695496014</v>
@@ -17738,19 +17738,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DBL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DBN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DBP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DBQ2" t="n">
         <v>0.3687234695496014</v>
@@ -17768,7 +17768,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DBV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBW2" t="n">
         <v>0.3687234695496014</v>
@@ -17780,10 +17780,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DBZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DCA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DCB2" t="n">
         <v>0.3687234695496014</v>
@@ -17801,13 +17801,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DCG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DCH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DCI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DCJ2" t="n">
         <v>0.3687234695496014</v>
@@ -17831,7 +17831,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DCQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DCR2" t="n">
         <v>0.3687234695496014</v>
@@ -17843,16 +17843,16 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DCU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DCV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DCW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DCX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DCY2" t="n">
         <v>0.3687234695496014</v>
@@ -17861,19 +17861,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DDA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DDB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DDC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DDD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DDE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DDF2" t="n">
         <v>0.3687234695496014</v>
@@ -17900,10 +17900,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DDN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DDO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DDP2" t="n">
         <v>0.3687234695496014</v>
@@ -17912,7 +17912,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DDR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DDS2" t="n">
         <v>0.3687234695496014</v>
@@ -17933,19 +17933,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DDY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DDZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DEA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DEB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DEC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DED2" t="n">
         <v>0.3687234695496014</v>
@@ -17987,13 +17987,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DEQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DER2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DES2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DET2" t="n">
         <v>0.3687234695496014</v>
@@ -18005,19 +18005,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DEW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DEX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DEY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DEZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DFA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DFB2" t="n">
         <v>0.3687234695496014</v>
@@ -18053,7 +18053,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DFM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DFN2" t="n">
         <v>0.3687234695496014</v>
@@ -18065,7 +18065,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DFQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DFR2" t="n">
         <v>0.3687234695496014</v>
@@ -18101,31 +18101,31 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DGC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DGD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DGE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DGF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DGG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DGH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DGI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DGJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DGK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DGL2" t="n">
         <v>0.3687234695496014</v>
@@ -18140,7 +18140,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DGP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DGQ2" t="n">
         <v>0.3687234695496014</v>
@@ -18170,13 +18170,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DGZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DHA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DHB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DHC2" t="n">
         <v>0.3687234695496014</v>
@@ -18212,7 +18212,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DHN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DHO2" t="n">
         <v>0.3687234695496014</v>
@@ -18239,7 +18239,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DHW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DHX2" t="n">
         <v>0.3687234695496014</v>
@@ -18254,7 +18254,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DIB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DIC2" t="n">
         <v>0.3687234695496014</v>
@@ -18266,7 +18266,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DIF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DIG2" t="n">
         <v>0.3687234695496014</v>
@@ -18284,7 +18284,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DIL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DIM2" t="n">
         <v>0.3687234695496014</v>
@@ -18320,31 +18320,31 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DIX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DIY2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DIZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DJA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DJB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DJC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DJD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DJE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DJF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DJG2" t="n">
         <v>0.3687234695496014</v>
@@ -18389,13 +18389,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DJU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DJV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DJW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DJX2" t="n">
         <v>0.3687234695496014</v>
@@ -18410,7 +18410,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DKB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DKC2" t="n">
         <v>0.3687234695496014</v>
@@ -18431,7 +18431,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DKI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DKJ2" t="n">
         <v>0.3687234695496014</v>
@@ -18622,7 +18622,7 @@
         <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BK3" t="n">
         <v>-0</v>
@@ -18646,7 +18646,7 @@
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
         <v>-0</v>
@@ -18673,10 +18673,10 @@
         <v>-0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CC3" t="n">
         <v>-0</v>
@@ -18694,7 +18694,7 @@
         <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
@@ -18706,7 +18706,7 @@
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CM3" t="n">
         <v>-0</v>
@@ -18715,10 +18715,10 @@
         <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -18751,7 +18751,7 @@
         <v>-0</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
         <v>-0</v>
@@ -18763,7 +18763,7 @@
         <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DF3" t="n">
         <v>-0</v>
@@ -18778,7 +18778,7 @@
         <v>-0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
@@ -18802,25 +18802,25 @@
         <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DS3" t="n">
         <v>-0</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DU3" t="n">
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DW3" t="n">
         <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
         <v>-0</v>
@@ -18832,7 +18832,7 @@
         <v>-0</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
@@ -18841,7 +18841,7 @@
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="EF3" t="n">
         <v>-0</v>
@@ -18859,13 +18859,13 @@
         <v>-0</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
@@ -18877,7 +18877,7 @@
         <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ER3" t="n">
         <v>-0</v>
@@ -18886,10 +18886,10 @@
         <v>-0</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="EV3" t="n">
         <v>-0</v>
@@ -18910,7 +18910,7 @@
         <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
@@ -18952,7 +18952,7 @@
         <v>-0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="FQ3" t="n">
         <v>-0</v>
@@ -18961,7 +18961,7 @@
         <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
         <v>-0</v>
@@ -18973,7 +18973,7 @@
         <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
         <v>-0</v>
@@ -18988,7 +18988,7 @@
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
@@ -19015,7 +19015,7 @@
         <v>-0</v>
       </c>
       <c r="GK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="GL3" t="n">
         <v>-0</v>
@@ -19057,7 +19057,7 @@
         <v>-0</v>
       </c>
       <c r="GY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="GZ3" t="n">
         <v>-0</v>
@@ -19075,7 +19075,7 @@
         <v>-0</v>
       </c>
       <c r="HE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="HF3" t="n">
         <v>-0</v>
@@ -19093,7 +19093,7 @@
         <v>-0</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="HL3" t="n">
         <v>-0</v>
@@ -19165,10 +19165,10 @@
         <v>-0</v>
       </c>
       <c r="II3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="IK3" t="n">
         <v>-0</v>
@@ -19192,7 +19192,7 @@
         <v>-0</v>
       </c>
       <c r="IR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="IS3" t="n">
         <v>-0</v>
@@ -19228,7 +19228,7 @@
         <v>-0</v>
       </c>
       <c r="JD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="JE3" t="n">
         <v>-0</v>
@@ -19240,7 +19240,7 @@
         <v>-0</v>
       </c>
       <c r="JH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="JI3" t="n">
         <v>-0</v>
@@ -19249,7 +19249,7 @@
         <v>-0</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="JL3" t="n">
         <v>-0</v>
@@ -19336,7 +19336,7 @@
         <v>-0</v>
       </c>
       <c r="KN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="KO3" t="n">
         <v>-0</v>
@@ -19351,7 +19351,7 @@
         <v>-0</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="KT3" t="n">
         <v>-0</v>
@@ -19366,7 +19366,7 @@
         <v>-0</v>
       </c>
       <c r="KX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="KY3" t="n">
         <v>-0</v>
@@ -19384,13 +19384,13 @@
         <v>-0</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="LE3" t="n">
         <v>-0</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="LG3" t="n">
         <v>-0</v>
@@ -19417,7 +19417,7 @@
         <v>-0</v>
       </c>
       <c r="LO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="LP3" t="n">
         <v>-0</v>
@@ -19447,7 +19447,7 @@
         <v>-0</v>
       </c>
       <c r="LY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="LZ3" t="n">
         <v>-0</v>
@@ -19462,7 +19462,7 @@
         <v>-0</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ME3" t="n">
         <v>-0</v>
@@ -19486,13 +19486,13 @@
         <v>-0</v>
       </c>
       <c r="ML3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="MM3" t="n">
         <v>-0</v>
       </c>
       <c r="MN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="MO3" t="n">
         <v>-0</v>
@@ -19522,7 +19522,7 @@
         <v>-0</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="MY3" t="n">
         <v>-0</v>
@@ -19534,7 +19534,7 @@
         <v>-0</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="NC3" t="n">
         <v>-0</v>
@@ -19543,7 +19543,7 @@
         <v>-0</v>
       </c>
       <c r="NE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="NF3" t="n">
         <v>-0</v>
@@ -19555,13 +19555,13 @@
         <v>-0</v>
       </c>
       <c r="NI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="NJ3" t="n">
         <v>-0</v>
       </c>
       <c r="NK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="NL3" t="n">
         <v>-0</v>
@@ -19570,13 +19570,13 @@
         <v>-0</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="NO3" t="n">
         <v>-0</v>
       </c>
       <c r="NP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="NQ3" t="n">
         <v>-0</v>
@@ -19633,7 +19633,7 @@
         <v>-0</v>
       </c>
       <c r="OI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="OJ3" t="n">
         <v>-0</v>
@@ -19645,7 +19645,7 @@
         <v>-0</v>
       </c>
       <c r="OM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ON3" t="n">
         <v>-0</v>
@@ -19657,7 +19657,7 @@
         <v>-0</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="OR3" t="n">
         <v>-0</v>
@@ -19711,25 +19711,25 @@
         <v>-0</v>
       </c>
       <c r="PI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="PJ3" t="n">
         <v>-0</v>
       </c>
       <c r="PK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="PL3" t="n">
         <v>-0</v>
       </c>
       <c r="PM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="PN3" t="n">
         <v>-0</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="PP3" t="n">
         <v>-0</v>
@@ -19762,7 +19762,7 @@
         <v>-0</v>
       </c>
       <c r="PZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="QA3" t="n">
         <v>-0</v>
@@ -19780,16 +19780,16 @@
         <v>-0</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="QG3" t="n">
         <v>-0</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="QI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="QJ3" t="n">
         <v>-0</v>
@@ -19804,7 +19804,7 @@
         <v>-0</v>
       </c>
       <c r="QN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="QO3" t="n">
         <v>-0</v>
@@ -19837,19 +19837,19 @@
         <v>-0</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="QZ3" t="n">
         <v>-0</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="RB3" t="n">
         <v>-0</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="RD3" t="n">
         <v>-0</v>
@@ -19903,7 +19903,7 @@
         <v>-0</v>
       </c>
       <c r="RU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="RV3" t="n">
         <v>-0</v>
@@ -19912,7 +19912,7 @@
         <v>-0</v>
       </c>
       <c r="RX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="RY3" t="n">
         <v>-0</v>
@@ -19930,7 +19930,7 @@
         <v>-0</v>
       </c>
       <c r="SD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="SE3" t="n">
         <v>-0</v>
@@ -19939,7 +19939,7 @@
         <v>-0</v>
       </c>
       <c r="SG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="SH3" t="n">
         <v>-0</v>
@@ -19981,7 +19981,7 @@
         <v>-0</v>
       </c>
       <c r="SU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="SV3" t="n">
         <v>-0</v>
@@ -20002,13 +20002,13 @@
         <v>-0</v>
       </c>
       <c r="TB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="TC3" t="n">
         <v>-0</v>
       </c>
       <c r="TD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="TE3" t="n">
         <v>-0</v>
@@ -20041,7 +20041,7 @@
         <v>-0</v>
       </c>
       <c r="TO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="TP3" t="n">
         <v>-0</v>
@@ -20065,7 +20065,7 @@
         <v>-0</v>
       </c>
       <c r="TW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="TX3" t="n">
         <v>-0</v>
@@ -20080,13 +20080,13 @@
         <v>-0</v>
       </c>
       <c r="UB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="UC3" t="n">
         <v>-0</v>
       </c>
       <c r="UD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="UE3" t="n">
         <v>-0</v>
@@ -20149,7 +20149,7 @@
         <v>-0</v>
       </c>
       <c r="UY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="UZ3" t="n">
         <v>-0</v>
@@ -20173,7 +20173,7 @@
         <v>-0</v>
       </c>
       <c r="VG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="VH3" t="n">
         <v>-0</v>
@@ -20221,7 +20221,7 @@
         <v>-0</v>
       </c>
       <c r="VW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="VX3" t="n">
         <v>-0</v>
@@ -20248,7 +20248,7 @@
         <v>-0</v>
       </c>
       <c r="WF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="WG3" t="n">
         <v>-0</v>
@@ -20260,7 +20260,7 @@
         <v>-0</v>
       </c>
       <c r="WJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="WK3" t="n">
         <v>-0</v>
@@ -20272,7 +20272,7 @@
         <v>-0</v>
       </c>
       <c r="WN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="WO3" t="n">
         <v>-0</v>
@@ -20299,7 +20299,7 @@
         <v>-0</v>
       </c>
       <c r="WW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="WX3" t="n">
         <v>-0</v>
@@ -20350,7 +20350,7 @@
         <v>-0</v>
       </c>
       <c r="XN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="XO3" t="n">
         <v>-0</v>
@@ -20392,7 +20392,7 @@
         <v>-0</v>
       </c>
       <c r="YB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="YC3" t="n">
         <v>-0</v>
@@ -20404,7 +20404,7 @@
         <v>-0</v>
       </c>
       <c r="YF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="YG3" t="n">
         <v>-0</v>
@@ -20449,16 +20449,16 @@
         <v>-0</v>
       </c>
       <c r="YU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="YV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="YW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="YX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="YY3" t="n">
         <v>-0</v>
@@ -20479,7 +20479,7 @@
         <v>-0</v>
       </c>
       <c r="ZE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ZF3" t="n">
         <v>-0</v>
@@ -20515,13 +20515,13 @@
         <v>-0</v>
       </c>
       <c r="ZQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ZR3" t="n">
         <v>-0</v>
       </c>
       <c r="ZS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ZT3" t="n">
         <v>-0</v>
@@ -20551,7 +20551,7 @@
         <v>-0</v>
       </c>
       <c r="AAC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AAD3" t="n">
         <v>-0</v>
@@ -20560,7 +20560,7 @@
         <v>-0</v>
       </c>
       <c r="AAF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AAG3" t="n">
         <v>-0</v>
@@ -20584,7 +20584,7 @@
         <v>-0</v>
       </c>
       <c r="AAN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AAO3" t="n">
         <v>-0</v>
@@ -20596,10 +20596,10 @@
         <v>-0</v>
       </c>
       <c r="AAR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AAS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AAT3" t="n">
         <v>-0</v>
@@ -20644,7 +20644,7 @@
         <v>-0</v>
       </c>
       <c r="ABH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ABI3" t="n">
         <v>-0</v>
@@ -20662,10 +20662,10 @@
         <v>-0</v>
       </c>
       <c r="ABN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ABO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ABP3" t="n">
         <v>-0</v>
@@ -20680,7 +20680,7 @@
         <v>-0</v>
       </c>
       <c r="ABT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ABU3" t="n">
         <v>-0</v>
@@ -20710,7 +20710,7 @@
         <v>-0</v>
       </c>
       <c r="ACD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ACE3" t="n">
         <v>-0</v>
@@ -20749,19 +20749,19 @@
         <v>-0</v>
       </c>
       <c r="ACQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ACR3" t="n">
         <v>-0</v>
       </c>
       <c r="ACS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ACT3" t="n">
         <v>-0</v>
       </c>
       <c r="ACU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ACV3" t="n">
         <v>-0</v>
@@ -20788,7 +20788,7 @@
         <v>-0</v>
       </c>
       <c r="ADD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ADE3" t="n">
         <v>-0</v>
@@ -20803,13 +20803,13 @@
         <v>-0</v>
       </c>
       <c r="ADI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ADJ3" t="n">
         <v>-0</v>
       </c>
       <c r="ADK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ADL3" t="n">
         <v>-0</v>
@@ -20842,7 +20842,7 @@
         <v>-0</v>
       </c>
       <c r="ADV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ADW3" t="n">
         <v>-0</v>
@@ -20881,7 +20881,7 @@
         <v>-0</v>
       </c>
       <c r="AEI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AEJ3" t="n">
         <v>-0</v>
@@ -20902,19 +20902,19 @@
         <v>-0</v>
       </c>
       <c r="AEP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AEQ3" t="n">
         <v>-0</v>
       </c>
       <c r="AER3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AES3" t="n">
         <v>-0</v>
       </c>
       <c r="AET3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AEU3" t="n">
         <v>-0</v>
@@ -20926,7 +20926,7 @@
         <v>-0</v>
       </c>
       <c r="AEX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AEY3" t="n">
         <v>-0</v>
@@ -20938,7 +20938,7 @@
         <v>-0</v>
       </c>
       <c r="AFB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AFC3" t="n">
         <v>-0</v>
@@ -21004,7 +21004,7 @@
         <v>-0</v>
       </c>
       <c r="AFX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AFY3" t="n">
         <v>-0</v>
@@ -21058,13 +21058,13 @@
         <v>-0</v>
       </c>
       <c r="AGP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AGQ3" t="n">
         <v>-0</v>
       </c>
       <c r="AGR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AGS3" t="n">
         <v>-0</v>
@@ -21082,7 +21082,7 @@
         <v>-0</v>
       </c>
       <c r="AGX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AGY3" t="n">
         <v>-0</v>
@@ -21091,7 +21091,7 @@
         <v>-0</v>
       </c>
       <c r="AHA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AHB3" t="n">
         <v>-0</v>
@@ -21106,7 +21106,7 @@
         <v>-0</v>
       </c>
       <c r="AHF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AHG3" t="n">
         <v>-0</v>
@@ -21184,13 +21184,13 @@
         <v>-0</v>
       </c>
       <c r="AIF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AIG3" t="n">
         <v>-0</v>
       </c>
       <c r="AIH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AII3" t="n">
         <v>-0</v>
@@ -21217,13 +21217,13 @@
         <v>-0</v>
       </c>
       <c r="AIQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AIR3" t="n">
         <v>-0</v>
       </c>
       <c r="AIS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AIT3" t="n">
         <v>-0</v>
@@ -21238,7 +21238,7 @@
         <v>-0</v>
       </c>
       <c r="AIX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AIY3" t="n">
         <v>-0</v>
@@ -21259,10 +21259,10 @@
         <v>-0</v>
       </c>
       <c r="AJE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AJF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AJG3" t="n">
         <v>-0</v>
@@ -21277,7 +21277,7 @@
         <v>-0</v>
       </c>
       <c r="AJK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AJL3" t="n">
         <v>-0</v>
@@ -21304,7 +21304,7 @@
         <v>-0</v>
       </c>
       <c r="AJT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AJU3" t="n">
         <v>-0</v>
@@ -21424,13 +21424,13 @@
         <v>-0</v>
       </c>
       <c r="ALH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ALI3" t="n">
         <v>-0</v>
       </c>
       <c r="ALJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ALK3" t="n">
         <v>-0</v>
@@ -21466,7 +21466,7 @@
         <v>-0</v>
       </c>
       <c r="ALV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ALW3" t="n">
         <v>-0</v>
@@ -21490,7 +21490,7 @@
         <v>-0</v>
       </c>
       <c r="AMD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AME3" t="n">
         <v>-0</v>
@@ -21517,25 +21517,25 @@
         <v>-0</v>
       </c>
       <c r="AMM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AMN3" t="n">
         <v>-0</v>
       </c>
       <c r="AMO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AMP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AMQ3" t="n">
         <v>-0</v>
       </c>
       <c r="AMR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AMS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AMT3" t="n">
         <v>-0</v>
@@ -21556,7 +21556,7 @@
         <v>-0</v>
       </c>
       <c r="AMZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ANA3" t="n">
         <v>-0</v>
@@ -21586,7 +21586,7 @@
         <v>-0</v>
       </c>
       <c r="ANJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ANK3" t="n">
         <v>-0</v>
@@ -21601,13 +21601,13 @@
         <v>-0</v>
       </c>
       <c r="ANO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ANP3" t="n">
         <v>-0</v>
       </c>
       <c r="ANQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ANR3" t="n">
         <v>-0</v>
@@ -21673,7 +21673,7 @@
         <v>-0</v>
       </c>
       <c r="AOM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AON3" t="n">
         <v>-0</v>
@@ -21700,7 +21700,7 @@
         <v>-0</v>
       </c>
       <c r="AOV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AOW3" t="n">
         <v>-0</v>
@@ -21781,7 +21781,7 @@
         <v>-0</v>
       </c>
       <c r="APW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="APX3" t="n">
         <v>-0</v>
@@ -21823,7 +21823,7 @@
         <v>-0</v>
       </c>
       <c r="AQK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AQL3" t="n">
         <v>-0</v>
@@ -21832,13 +21832,13 @@
         <v>-0</v>
       </c>
       <c r="AQN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AQO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AQP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AQQ3" t="n">
         <v>-0</v>
@@ -21859,7 +21859,7 @@
         <v>-0</v>
       </c>
       <c r="AQW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AQX3" t="n">
         <v>-0</v>
@@ -21877,13 +21877,13 @@
         <v>-0</v>
       </c>
       <c r="ARC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ARD3" t="n">
         <v>-0</v>
       </c>
       <c r="ARE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ARF3" t="n">
         <v>-0</v>
@@ -21895,13 +21895,13 @@
         <v>-0</v>
       </c>
       <c r="ARI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ARJ3" t="n">
         <v>-0</v>
       </c>
       <c r="ARK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ARL3" t="n">
         <v>-0</v>
@@ -21925,7 +21925,7 @@
         <v>-0</v>
       </c>
       <c r="ARS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ART3" t="n">
         <v>-0</v>
@@ -21934,7 +21934,7 @@
         <v>-0</v>
       </c>
       <c r="ARV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ARW3" t="n">
         <v>-0</v>
@@ -21979,7 +21979,7 @@
         <v>-0</v>
       </c>
       <c r="ASK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ASL3" t="n">
         <v>-0</v>
@@ -22015,7 +22015,7 @@
         <v>-0</v>
       </c>
       <c r="ASW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ASX3" t="n">
         <v>-0</v>
@@ -22045,7 +22045,7 @@
         <v>-0</v>
       </c>
       <c r="ATG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ATH3" t="n">
         <v>-0</v>
@@ -22099,7 +22099,7 @@
         <v>-0</v>
       </c>
       <c r="ATY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ATZ3" t="n">
         <v>-0</v>
@@ -22108,7 +22108,7 @@
         <v>-0</v>
       </c>
       <c r="AUB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AUC3" t="n">
         <v>-0</v>
@@ -22126,7 +22126,7 @@
         <v>-0</v>
       </c>
       <c r="AUH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AUI3" t="n">
         <v>-0</v>
@@ -22174,7 +22174,7 @@
         <v>-0</v>
       </c>
       <c r="AUX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AUY3" t="n">
         <v>-0</v>
@@ -22207,7 +22207,7 @@
         <v>-0</v>
       </c>
       <c r="AVI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AVJ3" t="n">
         <v>-0</v>
@@ -22216,7 +22216,7 @@
         <v>-0</v>
       </c>
       <c r="AVL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AVM3" t="n">
         <v>-0</v>
@@ -22243,7 +22243,7 @@
         <v>-0</v>
       </c>
       <c r="AVU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AVV3" t="n">
         <v>-0</v>
@@ -22267,7 +22267,7 @@
         <v>-0</v>
       </c>
       <c r="AWC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AWD3" t="n">
         <v>-0</v>
@@ -22291,7 +22291,7 @@
         <v>-0</v>
       </c>
       <c r="AWK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AWL3" t="n">
         <v>-0</v>
@@ -22324,7 +22324,7 @@
         <v>-0</v>
       </c>
       <c r="AWV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AWW3" t="n">
         <v>-0</v>
@@ -22351,7 +22351,7 @@
         <v>-0</v>
       </c>
       <c r="AXE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AXF3" t="n">
         <v>-0</v>
@@ -22363,7 +22363,7 @@
         <v>-0</v>
       </c>
       <c r="AXI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AXJ3" t="n">
         <v>-0</v>
@@ -22429,7 +22429,7 @@
         <v>-0</v>
       </c>
       <c r="AYE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AYF3" t="n">
         <v>-0</v>
@@ -22438,34 +22438,34 @@
         <v>-0</v>
       </c>
       <c r="AYH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AYI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AYJ3" t="n">
         <v>-0</v>
       </c>
       <c r="AYK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AYL3" t="n">
         <v>-0</v>
       </c>
       <c r="AYM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AYN3" t="n">
         <v>-0</v>
       </c>
       <c r="AYO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AYP3" t="n">
         <v>-0</v>
       </c>
       <c r="AYQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AYR3" t="n">
         <v>-0</v>
@@ -22516,19 +22516,19 @@
         <v>-0</v>
       </c>
       <c r="AZH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AZI3" t="n">
         <v>-0</v>
       </c>
       <c r="AZJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AZK3" t="n">
         <v>-0</v>
       </c>
       <c r="AZL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AZM3" t="n">
         <v>-0</v>
@@ -22543,7 +22543,7 @@
         <v>-0</v>
       </c>
       <c r="AZQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AZR3" t="n">
         <v>-0</v>
@@ -22552,13 +22552,13 @@
         <v>-0</v>
       </c>
       <c r="AZT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AZU3" t="n">
         <v>-0</v>
       </c>
       <c r="AZV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AZW3" t="n">
         <v>-0</v>
@@ -22630,13 +22630,13 @@
         <v>-0</v>
       </c>
       <c r="BAT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BAU3" t="n">
         <v>-0</v>
       </c>
       <c r="BAV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BAW3" t="n">
         <v>-0</v>
@@ -22654,7 +22654,7 @@
         <v>-0</v>
       </c>
       <c r="BBB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BBC3" t="n">
         <v>-0</v>
@@ -22672,7 +22672,7 @@
         <v>-0</v>
       </c>
       <c r="BBH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BBI3" t="n">
         <v>-0</v>
@@ -22702,10 +22702,10 @@
         <v>-0</v>
       </c>
       <c r="BBR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BBS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BBT3" t="n">
         <v>-0</v>
@@ -22735,7 +22735,7 @@
         <v>-0</v>
       </c>
       <c r="BCC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BCD3" t="n">
         <v>-0</v>
@@ -22783,25 +22783,25 @@
         <v>-0</v>
       </c>
       <c r="BCS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BCT3" t="n">
         <v>-0</v>
       </c>
       <c r="BCU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BCV3" t="n">
         <v>-0</v>
       </c>
       <c r="BCW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BCX3" t="n">
         <v>-0</v>
       </c>
       <c r="BCY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BCZ3" t="n">
         <v>-0</v>
@@ -22831,25 +22831,25 @@
         <v>-0</v>
       </c>
       <c r="BDI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BDJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BDK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BDL3" t="n">
         <v>-0</v>
       </c>
       <c r="BDM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BDN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BDO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BDP3" t="n">
         <v>-0</v>
@@ -22903,19 +22903,19 @@
         <v>-0</v>
       </c>
       <c r="BEG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BEH3" t="n">
         <v>-0</v>
       </c>
       <c r="BEI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BEJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BEK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BEL3" t="n">
         <v>-0</v>
@@ -22945,13 +22945,13 @@
         <v>-0</v>
       </c>
       <c r="BEU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BEV3" t="n">
         <v>-0</v>
       </c>
       <c r="BEW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BEX3" t="n">
         <v>-0</v>
@@ -22972,13 +22972,13 @@
         <v>-0</v>
       </c>
       <c r="BFD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BFE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BFF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BFG3" t="n">
         <v>-0</v>
@@ -23002,7 +23002,7 @@
         <v>-0</v>
       </c>
       <c r="BFN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BFO3" t="n">
         <v>-0</v>
@@ -23026,7 +23026,7 @@
         <v>-0</v>
       </c>
       <c r="BFV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BFW3" t="n">
         <v>-0</v>
@@ -23044,7 +23044,7 @@
         <v>-0</v>
       </c>
       <c r="BGB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BGC3" t="n">
         <v>-0</v>
@@ -23059,19 +23059,19 @@
         <v>-0</v>
       </c>
       <c r="BGG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BGH3" t="n">
         <v>-0</v>
       </c>
       <c r="BGI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BGJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BGK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BGL3" t="n">
         <v>-0</v>
@@ -23083,7 +23083,7 @@
         <v>-0</v>
       </c>
       <c r="BGO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BGP3" t="n">
         <v>-0</v>
@@ -23146,7 +23146,7 @@
         <v>-0</v>
       </c>
       <c r="BHJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BHK3" t="n">
         <v>-0</v>
@@ -23179,25 +23179,25 @@
         <v>-0</v>
       </c>
       <c r="BHU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BHV3" t="n">
         <v>-0</v>
       </c>
       <c r="BHW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BHX3" t="n">
         <v>-0</v>
       </c>
       <c r="BHY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BHZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BIA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BIB3" t="n">
         <v>-0</v>
@@ -23236,7 +23236,7 @@
         <v>-0</v>
       </c>
       <c r="BIN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BIO3" t="n">
         <v>-0</v>
@@ -23254,7 +23254,7 @@
         <v>-0</v>
       </c>
       <c r="BIT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BIU3" t="n">
         <v>-0</v>
@@ -23266,7 +23266,7 @@
         <v>-0</v>
       </c>
       <c r="BIX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BIY3" t="n">
         <v>-0</v>
@@ -23278,7 +23278,7 @@
         <v>-0</v>
       </c>
       <c r="BJB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJC3" t="n">
         <v>-0</v>
@@ -23287,22 +23287,22 @@
         <v>-0</v>
       </c>
       <c r="BJE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJF3" t="n">
         <v>-0</v>
       </c>
       <c r="BJG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BJI3" t="n">
         <v>-0</v>
       </c>
       <c r="BJJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BJK3" t="n">
         <v>-0</v>
@@ -23317,7 +23317,7 @@
         <v>-0</v>
       </c>
       <c r="BJO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJP3" t="n">
         <v>-0</v>
@@ -23326,7 +23326,7 @@
         <v>-0</v>
       </c>
       <c r="BJR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BJS3" t="n">
         <v>-0</v>
@@ -23392,13 +23392,13 @@
         <v>-0</v>
       </c>
       <c r="BKN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BKO3" t="n">
         <v>-0</v>
       </c>
       <c r="BKP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BKQ3" t="n">
         <v>-0</v>
@@ -23431,25 +23431,25 @@
         <v>-0</v>
       </c>
       <c r="BLA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BLB3" t="n">
         <v>-0</v>
       </c>
       <c r="BLC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BLD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BLE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BLF3" t="n">
         <v>-0</v>
       </c>
       <c r="BLG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BLH3" t="n">
         <v>-0</v>
@@ -23491,10 +23491,10 @@
         <v>-0</v>
       </c>
       <c r="BLU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BLV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BLW3" t="n">
         <v>-0</v>
@@ -23515,7 +23515,7 @@
         <v>-0</v>
       </c>
       <c r="BMC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BMD3" t="n">
         <v>-0</v>
@@ -23527,25 +23527,25 @@
         <v>-0</v>
       </c>
       <c r="BMG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BMH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BMI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BMJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BMK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BML3" t="n">
         <v>-0</v>
       </c>
       <c r="BMM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BMN3" t="n">
         <v>-0</v>
@@ -23560,7 +23560,7 @@
         <v>-0</v>
       </c>
       <c r="BMR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BMS3" t="n">
         <v>-0</v>
@@ -23587,7 +23587,7 @@
         <v>-0</v>
       </c>
       <c r="BNA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BNB3" t="n">
         <v>-0</v>
@@ -23596,7 +23596,7 @@
         <v>-0</v>
       </c>
       <c r="BND3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BNE3" t="n">
         <v>-0</v>
@@ -23608,7 +23608,7 @@
         <v>-0</v>
       </c>
       <c r="BNH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BNI3" t="n">
         <v>-0</v>
@@ -23662,19 +23662,19 @@
         <v>-0</v>
       </c>
       <c r="BNZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BOB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BOD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOE3" t="n">
         <v>-0</v>
@@ -23692,13 +23692,13 @@
         <v>-0</v>
       </c>
       <c r="BOJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOK3" t="n">
         <v>-0</v>
       </c>
       <c r="BOL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOM3" t="n">
         <v>-0</v>
@@ -23716,7 +23716,7 @@
         <v>-0</v>
       </c>
       <c r="BOR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOS3" t="n">
         <v>-0</v>
@@ -23728,13 +23728,13 @@
         <v>-0</v>
       </c>
       <c r="BOV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOW3" t="n">
         <v>-0</v>
       </c>
       <c r="BOX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOY3" t="n">
         <v>-0</v>
@@ -23767,22 +23767,22 @@
         <v>-0</v>
       </c>
       <c r="BPI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BPJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BPK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BPL3" t="n">
         <v>-0</v>
       </c>
       <c r="BPM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BPN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BPO3" t="n">
         <v>-0</v>
@@ -23803,37 +23803,37 @@
         <v>-0</v>
       </c>
       <c r="BPU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BPV3" t="n">
         <v>-0</v>
       </c>
       <c r="BPW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BPX3" t="n">
         <v>-0</v>
       </c>
       <c r="BPY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BPZ3" t="n">
         <v>-0</v>
       </c>
       <c r="BQA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BQB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BQC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BQD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BQE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BQF3" t="n">
         <v>-0</v>
@@ -23860,7 +23860,7 @@
         <v>-0</v>
       </c>
       <c r="BQN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BQO3" t="n">
         <v>-0</v>
@@ -23881,7 +23881,7 @@
         <v>-0</v>
       </c>
       <c r="BQU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BQV3" t="n">
         <v>-0</v>
@@ -23896,7 +23896,7 @@
         <v>-0</v>
       </c>
       <c r="BQZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BRA3" t="n">
         <v>-0</v>
@@ -23905,7 +23905,7 @@
         <v>-0</v>
       </c>
       <c r="BRC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BRD3" t="n">
         <v>-0</v>
@@ -23923,7 +23923,7 @@
         <v>-0</v>
       </c>
       <c r="BRI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BRJ3" t="n">
         <v>-0</v>
@@ -23947,7 +23947,7 @@
         <v>-0</v>
       </c>
       <c r="BRQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BRR3" t="n">
         <v>-0</v>
@@ -23956,13 +23956,13 @@
         <v>-0</v>
       </c>
       <c r="BRT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BRU3" t="n">
         <v>-0</v>
       </c>
       <c r="BRV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BRW3" t="n">
         <v>-0</v>
@@ -23974,13 +23974,13 @@
         <v>-0</v>
       </c>
       <c r="BRZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BSA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BSB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BSC3" t="n">
         <v>-0</v>
@@ -23989,7 +23989,7 @@
         <v>-0</v>
       </c>
       <c r="BSE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BSF3" t="n">
         <v>-0</v>
@@ -24031,7 +24031,7 @@
         <v>-0</v>
       </c>
       <c r="BSS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BST3" t="n">
         <v>-0</v>
@@ -24052,37 +24052,37 @@
         <v>-0</v>
       </c>
       <c r="BSZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BTA3" t="n">
         <v>-0</v>
       </c>
       <c r="BTB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTC3" t="n">
         <v>-0</v>
       </c>
       <c r="BTD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTE3" t="n">
         <v>-0</v>
       </c>
       <c r="BTF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BTH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTI3" t="n">
         <v>-0</v>
       </c>
       <c r="BTJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTK3" t="n">
         <v>-0</v>
@@ -24121,19 +24121,19 @@
         <v>-0</v>
       </c>
       <c r="BTW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTX3" t="n">
         <v>-0</v>
       </c>
       <c r="BTY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BUA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUB3" t="n">
         <v>-0</v>
@@ -24151,7 +24151,7 @@
         <v>-0</v>
       </c>
       <c r="BUG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUH3" t="n">
         <v>-0</v>
@@ -24166,43 +24166,43 @@
         <v>-0</v>
       </c>
       <c r="BUL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BUM3" t="n">
         <v>-0</v>
       </c>
       <c r="BUN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BUO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BUQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUR3" t="n">
         <v>-0</v>
       </c>
       <c r="BUS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUT3" t="n">
         <v>-0</v>
       </c>
       <c r="BUU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BUW3" t="n">
         <v>-0</v>
       </c>
       <c r="BUX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BUY3" t="n">
         <v>-0</v>
@@ -24214,19 +24214,19 @@
         <v>-0</v>
       </c>
       <c r="BVB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVC3" t="n">
         <v>-0</v>
       </c>
       <c r="BVD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVE3" t="n">
         <v>-0</v>
       </c>
       <c r="BVF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVG3" t="n">
         <v>-0</v>
@@ -24244,10 +24244,10 @@
         <v>-0</v>
       </c>
       <c r="BVL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVN3" t="n">
         <v>-0</v>
@@ -24256,22 +24256,22 @@
         <v>-0</v>
       </c>
       <c r="BVP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVT3" t="n">
         <v>-0</v>
       </c>
       <c r="BVU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVV3" t="n">
         <v>-0</v>
@@ -24283,7 +24283,7 @@
         <v>-0</v>
       </c>
       <c r="BVY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVZ3" t="n">
         <v>-0</v>
@@ -24301,19 +24301,19 @@
         <v>-0</v>
       </c>
       <c r="BWE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWF3" t="n">
         <v>-0</v>
       </c>
       <c r="BWG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWH3" t="n">
         <v>-0</v>
       </c>
       <c r="BWI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWJ3" t="n">
         <v>-0</v>
@@ -24337,13 +24337,13 @@
         <v>-0</v>
       </c>
       <c r="BWQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BWR3" t="n">
         <v>-0</v>
       </c>
       <c r="BWS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BWT3" t="n">
         <v>-0</v>
@@ -24385,7 +24385,7 @@
         <v>-0</v>
       </c>
       <c r="BXG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BXH3" t="n">
         <v>-0</v>
@@ -24394,13 +24394,13 @@
         <v>-0</v>
       </c>
       <c r="BXJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BXK3" t="n">
         <v>-0</v>
       </c>
       <c r="BXL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BXM3" t="n">
         <v>-0</v>
@@ -24457,13 +24457,13 @@
         <v>-0</v>
       </c>
       <c r="BYE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BYF3" t="n">
         <v>-0</v>
       </c>
       <c r="BYG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYH3" t="n">
         <v>-0</v>
@@ -24475,7 +24475,7 @@
         <v>-0</v>
       </c>
       <c r="BYK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYL3" t="n">
         <v>-0</v>
@@ -24505,13 +24505,13 @@
         <v>-0</v>
       </c>
       <c r="BYU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYV3" t="n">
         <v>-0</v>
       </c>
       <c r="BYW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYX3" t="n">
         <v>-0</v>
@@ -24541,13 +24541,13 @@
         <v>-0</v>
       </c>
       <c r="BZG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BZH3" t="n">
         <v>-0</v>
       </c>
       <c r="BZI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BZJ3" t="n">
         <v>-0</v>
@@ -24562,7 +24562,7 @@
         <v>-0</v>
       </c>
       <c r="BZN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BZO3" t="n">
         <v>-0</v>
@@ -24571,7 +24571,7 @@
         <v>-0</v>
       </c>
       <c r="BZQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BZR3" t="n">
         <v>-0</v>
@@ -24592,7 +24592,7 @@
         <v>-0</v>
       </c>
       <c r="BZX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BZY3" t="n">
         <v>-0</v>
@@ -24622,10 +24622,10 @@
         <v>-0</v>
       </c>
       <c r="CAH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAJ3" t="n">
         <v>-0</v>
@@ -24637,10 +24637,10 @@
         <v>-0</v>
       </c>
       <c r="CAM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAO3" t="n">
         <v>-0</v>
@@ -24649,28 +24649,28 @@
         <v>-0</v>
       </c>
       <c r="CAQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAU3" t="n">
         <v>-0</v>
       </c>
       <c r="CAV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAW3" t="n">
         <v>-0</v>
       </c>
       <c r="CAX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAY3" t="n">
         <v>-0</v>
@@ -24682,31 +24682,31 @@
         <v>-0</v>
       </c>
       <c r="CBB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBC3" t="n">
         <v>-0</v>
       </c>
       <c r="CBD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBE3" t="n">
         <v>-0</v>
       </c>
       <c r="CBF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBG3" t="n">
         <v>-0</v>
       </c>
       <c r="CBH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBI3" t="n">
         <v>-0</v>
       </c>
       <c r="CBJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CBK3" t="n">
         <v>-0</v>
@@ -24724,34 +24724,34 @@
         <v>-0</v>
       </c>
       <c r="CBP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CBQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CBS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CBU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBV3" t="n">
         <v>-0</v>
       </c>
       <c r="CBW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBX3" t="n">
         <v>-0</v>
       </c>
       <c r="CBY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBZ3" t="n">
         <v>-0</v>
@@ -24763,13 +24763,13 @@
         <v>-0</v>
       </c>
       <c r="CCC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CCD3" t="n">
         <v>-0</v>
       </c>
       <c r="CCE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CCF3" t="n">
         <v>-0</v>
@@ -24781,7 +24781,7 @@
         <v>-0</v>
       </c>
       <c r="CCI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CCJ3" t="n">
         <v>-0</v>
@@ -24799,13 +24799,13 @@
         <v>-0</v>
       </c>
       <c r="CCO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCP3" t="n">
         <v>-0</v>
       </c>
       <c r="CCQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCR3" t="n">
         <v>-0</v>
@@ -24817,7 +24817,7 @@
         <v>-0</v>
       </c>
       <c r="CCU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCV3" t="n">
         <v>-0</v>
@@ -24832,7 +24832,7 @@
         <v>-0</v>
       </c>
       <c r="CCZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDA3" t="n">
         <v>-0</v>
@@ -24841,7 +24841,7 @@
         <v>-0</v>
       </c>
       <c r="CDC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDD3" t="n">
         <v>-0</v>
@@ -24859,7 +24859,7 @@
         <v>-0</v>
       </c>
       <c r="CDI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDJ3" t="n">
         <v>-0</v>
@@ -24877,13 +24877,13 @@
         <v>-0</v>
       </c>
       <c r="CDO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDP3" t="n">
         <v>-0</v>
       </c>
       <c r="CDQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDR3" t="n">
         <v>-0</v>
@@ -24895,19 +24895,19 @@
         <v>-0</v>
       </c>
       <c r="CDU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDV3" t="n">
         <v>-0</v>
       </c>
       <c r="CDW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDZ3" t="n">
         <v>-0</v>
@@ -24919,7 +24919,7 @@
         <v>-0</v>
       </c>
       <c r="CEC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CED3" t="n">
         <v>-0</v>
@@ -24928,7 +24928,7 @@
         <v>-0</v>
       </c>
       <c r="CEF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CEG3" t="n">
         <v>-0</v>
@@ -24940,7 +24940,7 @@
         <v>-0</v>
       </c>
       <c r="CEJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CEK3" t="n">
         <v>-0</v>
@@ -24955,13 +24955,13 @@
         <v>-0</v>
       </c>
       <c r="CEO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CEP3" t="n">
         <v>-0</v>
       </c>
       <c r="CEQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CER3" t="n">
         <v>-0</v>
@@ -24994,28 +24994,28 @@
         <v>-0</v>
       </c>
       <c r="CFB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFC3" t="n">
         <v>-0</v>
       </c>
       <c r="CFD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFF3" t="n">
         <v>-0</v>
       </c>
       <c r="CFG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFH3" t="n">
         <v>-0</v>
       </c>
       <c r="CFI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFJ3" t="n">
         <v>-0</v>
@@ -25027,25 +25027,25 @@
         <v>-0</v>
       </c>
       <c r="CFM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFP3" t="n">
         <v>-0</v>
       </c>
       <c r="CFQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFR3" t="n">
         <v>-0</v>
       </c>
       <c r="CFS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFT3" t="n">
         <v>-0</v>
@@ -25057,19 +25057,19 @@
         <v>-0</v>
       </c>
       <c r="CFW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFX3" t="n">
         <v>-0</v>
       </c>
       <c r="CFY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CGB3" t="n">
         <v>-0</v>
@@ -25078,31 +25078,31 @@
         <v>-0</v>
       </c>
       <c r="CGD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGE3" t="n">
         <v>-0</v>
       </c>
       <c r="CGF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGG3" t="n">
         <v>-0</v>
       </c>
       <c r="CGH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CGJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CGL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGM3" t="n">
         <v>-0</v>
@@ -25114,7 +25114,7 @@
         <v>-0</v>
       </c>
       <c r="CGP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGQ3" t="n">
         <v>-0</v>
@@ -25126,10 +25126,10 @@
         <v>-0</v>
       </c>
       <c r="CGT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CGV3" t="n">
         <v>-0</v>
@@ -25141,7 +25141,7 @@
         <v>-0</v>
       </c>
       <c r="CGY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGZ3" t="n">
         <v>-0</v>
@@ -25162,7 +25162,7 @@
         <v>-0</v>
       </c>
       <c r="CHF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHG3" t="n">
         <v>-0</v>
@@ -25174,34 +25174,34 @@
         <v>-0</v>
       </c>
       <c r="CHJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CHK3" t="n">
         <v>-0</v>
       </c>
       <c r="CHL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CHM3" t="n">
         <v>-0</v>
       </c>
       <c r="CHN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CHO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CHQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CHS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHT3" t="n">
         <v>-0</v>
@@ -25213,76 +25213,76 @@
         <v>-0</v>
       </c>
       <c r="CHW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CHY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHZ3" t="n">
         <v>-0</v>
       </c>
       <c r="CIA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CIC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CID3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CIE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CIG3" t="n">
         <v>-0</v>
       </c>
       <c r="CIH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CII3" t="n">
         <v>-0</v>
       </c>
       <c r="CIJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CIK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIL3" t="n">
         <v>-0</v>
       </c>
       <c r="CIM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIN3" t="n">
         <v>-0</v>
       </c>
       <c r="CIO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CIQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CIS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CIU3" t="n">
         <v>-0</v>
@@ -25300,13 +25300,13 @@
         <v>-0</v>
       </c>
       <c r="CIZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CJA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CJC3" t="n">
         <v>-0</v>
@@ -25318,13 +25318,13 @@
         <v>-0</v>
       </c>
       <c r="CJF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJG3" t="n">
         <v>-0</v>
       </c>
       <c r="CJH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJI3" t="n">
         <v>-0</v>
@@ -25339,13 +25339,13 @@
         <v>-0</v>
       </c>
       <c r="CJM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CJN3" t="n">
         <v>-0</v>
       </c>
       <c r="CJO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CJP3" t="n">
         <v>-0</v>
@@ -25357,13 +25357,13 @@
         <v>-0</v>
       </c>
       <c r="CJS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJT3" t="n">
         <v>-0</v>
       </c>
       <c r="CJU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJV3" t="n">
         <v>-0</v>
@@ -25381,13 +25381,13 @@
         <v>-0</v>
       </c>
       <c r="CKA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CKB3" t="n">
         <v>-0</v>
       </c>
       <c r="CKC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKD3" t="n">
         <v>-0</v>
@@ -25414,22 +25414,22 @@
         <v>-0</v>
       </c>
       <c r="CKL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CKM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKN3" t="n">
         <v>-0</v>
       </c>
       <c r="CKO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKP3" t="n">
         <v>-0</v>
       </c>
       <c r="CKQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKR3" t="n">
         <v>-0</v>
@@ -25438,13 +25438,13 @@
         <v>-0</v>
       </c>
       <c r="CKT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CKU3" t="n">
         <v>-0</v>
       </c>
       <c r="CKV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CKW3" t="n">
         <v>-0</v>
@@ -25468,7 +25468,7 @@
         <v>-0</v>
       </c>
       <c r="CLD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CLE3" t="n">
         <v>-0</v>
@@ -25480,13 +25480,13 @@
         <v>-0</v>
       </c>
       <c r="CLH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CLI3" t="n">
         <v>-0</v>
       </c>
       <c r="CLJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CLK3" t="n">
         <v>-0</v>
@@ -25498,7 +25498,7 @@
         <v>-0</v>
       </c>
       <c r="CLN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CLO3" t="n">
         <v>-0</v>
@@ -25525,7 +25525,7 @@
         <v>-0</v>
       </c>
       <c r="CLW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CLX3" t="n">
         <v>-0</v>
@@ -25543,7 +25543,7 @@
         <v>-0</v>
       </c>
       <c r="CMC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CMD3" t="n">
         <v>-0</v>
@@ -25555,7 +25555,7 @@
         <v>-0</v>
       </c>
       <c r="CMG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMH3" t="n">
         <v>-0</v>
@@ -25570,19 +25570,19 @@
         <v>-0</v>
       </c>
       <c r="CML3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CMM3" t="n">
         <v>-0</v>
       </c>
       <c r="CMN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMO3" t="n">
         <v>-0</v>
       </c>
       <c r="CMP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMQ3" t="n">
         <v>-0</v>
@@ -25591,19 +25591,19 @@
         <v>-0</v>
       </c>
       <c r="CMS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CMT3" t="n">
         <v>-0</v>
       </c>
       <c r="CMU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CMV3" t="n">
         <v>-0</v>
       </c>
       <c r="CMW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CMX3" t="n">
         <v>-0</v>
@@ -25618,7 +25618,7 @@
         <v>-0</v>
       </c>
       <c r="CNB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNC3" t="n">
         <v>-0</v>
@@ -25648,7 +25648,7 @@
         <v>-0</v>
       </c>
       <c r="CNL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CNM3" t="n">
         <v>-0</v>
@@ -25663,19 +25663,19 @@
         <v>-0</v>
       </c>
       <c r="CNQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CNR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CNT3" t="n">
         <v>-0</v>
       </c>
       <c r="CNU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CNV3" t="n">
         <v>-0</v>
@@ -25684,40 +25684,40 @@
         <v>-0</v>
       </c>
       <c r="CNX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNY3" t="n">
         <v>-0</v>
       </c>
       <c r="CNZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="COA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="COB3" t="n">
         <v>-0</v>
       </c>
       <c r="COC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="COD3" t="n">
         <v>-0</v>
       </c>
       <c r="COE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="COF3" t="n">
         <v>-0</v>
       </c>
       <c r="COG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="COH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="COI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="COJ3" t="n">
         <v>-0</v>
@@ -25729,13 +25729,13 @@
         <v>-0</v>
       </c>
       <c r="COM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CON3" t="n">
         <v>-0</v>
       </c>
       <c r="COO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="COP3" t="n">
         <v>-0</v>
@@ -25765,7 +25765,7 @@
         <v>-0</v>
       </c>
       <c r="COY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="COZ3" t="n">
         <v>-0</v>
@@ -25774,25 +25774,25 @@
         <v>-0</v>
       </c>
       <c r="CPB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CPC3" t="n">
         <v>-0</v>
       </c>
       <c r="CPD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CPE3" t="n">
         <v>-0</v>
       </c>
       <c r="CPF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CPG3" t="n">
         <v>-0</v>
       </c>
       <c r="CPH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CPI3" t="n">
         <v>-0</v>
@@ -25813,7 +25813,7 @@
         <v>-0</v>
       </c>
       <c r="CPO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CPP3" t="n">
         <v>-0</v>
@@ -25825,13 +25825,13 @@
         <v>-0</v>
       </c>
       <c r="CPS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CPT3" t="n">
         <v>-0</v>
       </c>
       <c r="CPU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CPV3" t="n">
         <v>-0</v>
@@ -25843,7 +25843,7 @@
         <v>-0</v>
       </c>
       <c r="CPY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CPZ3" t="n">
         <v>-0</v>
@@ -25858,10 +25858,10 @@
         <v>-0</v>
       </c>
       <c r="CQD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQF3" t="n">
         <v>-0</v>
@@ -25873,13 +25873,13 @@
         <v>-0</v>
       </c>
       <c r="CQI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQJ3" t="n">
         <v>-0</v>
       </c>
       <c r="CQK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQL3" t="n">
         <v>-0</v>
@@ -25888,43 +25888,43 @@
         <v>-0</v>
       </c>
       <c r="CQN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQO3" t="n">
         <v>-0</v>
       </c>
       <c r="CQP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQQ3" t="n">
         <v>-0</v>
       </c>
       <c r="CQR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQS3" t="n">
         <v>-0</v>
       </c>
       <c r="CQT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQX3" t="n">
         <v>-0</v>
       </c>
       <c r="CQY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRA3" t="n">
         <v>-0</v>
@@ -25939,22 +25939,22 @@
         <v>-0</v>
       </c>
       <c r="CRE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CRF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CRH3" t="n">
         <v>-0</v>
       </c>
       <c r="CRI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CRJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRK3" t="n">
         <v>-0</v>
@@ -25987,19 +25987,19 @@
         <v>-0</v>
       </c>
       <c r="CRU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRV3" t="n">
         <v>-0</v>
       </c>
       <c r="CRW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRX3" t="n">
         <v>-0</v>
       </c>
       <c r="CRY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRZ3" t="n">
         <v>-0</v>
@@ -26008,7 +26008,7 @@
         <v>-0</v>
       </c>
       <c r="CSB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSC3" t="n">
         <v>-0</v>
@@ -26020,40 +26020,40 @@
         <v>-0</v>
       </c>
       <c r="CSF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSG3" t="n">
         <v>-0</v>
       </c>
       <c r="CSH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CSJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSK3" t="n">
         <v>-0</v>
       </c>
       <c r="CSL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSM3" t="n">
         <v>-0</v>
       </c>
       <c r="CSN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSO3" t="n">
         <v>-0</v>
       </c>
       <c r="CSP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CSR3" t="n">
         <v>-0</v>
@@ -26068,7 +26068,7 @@
         <v>-0</v>
       </c>
       <c r="CSV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CSW3" t="n">
         <v>-0</v>
@@ -26077,10 +26077,10 @@
         <v>-0</v>
       </c>
       <c r="CSY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CTA3" t="n">
         <v>-0</v>
@@ -26098,7 +26098,7 @@
         <v>-0</v>
       </c>
       <c r="CTF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CTG3" t="n">
         <v>-0</v>
@@ -26110,22 +26110,22 @@
         <v>-0</v>
       </c>
       <c r="CTJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CTK3" t="n">
         <v>-0</v>
       </c>
       <c r="CTL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CTM3" t="n">
         <v>-0</v>
       </c>
       <c r="CTN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CTO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CTP3" t="n">
         <v>-0</v>
@@ -26137,7 +26137,7 @@
         <v>-0</v>
       </c>
       <c r="CTS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CTT3" t="n">
         <v>-0</v>
@@ -26173,7 +26173,7 @@
         <v>-0</v>
       </c>
       <c r="CUE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUF3" t="n">
         <v>-0</v>
@@ -26188,25 +26188,25 @@
         <v>-0</v>
       </c>
       <c r="CUJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CUK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUL3" t="n">
         <v>-0</v>
       </c>
       <c r="CUM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CUO3" t="n">
         <v>-0</v>
       </c>
       <c r="CUP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CUQ3" t="n">
         <v>-0</v>
@@ -26224,7 +26224,7 @@
         <v>-0</v>
       </c>
       <c r="CUV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CUW3" t="n">
         <v>-0</v>
@@ -26245,40 +26245,40 @@
         <v>-0</v>
       </c>
       <c r="CVC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVD3" t="n">
         <v>-0</v>
       </c>
       <c r="CVE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVF3" t="n">
         <v>-0</v>
       </c>
       <c r="CVG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVO3" t="n">
         <v>-0</v>
@@ -26296,13 +26296,13 @@
         <v>-0</v>
       </c>
       <c r="CVT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVU3" t="n">
         <v>-0</v>
       </c>
       <c r="CVV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVW3" t="n">
         <v>-0</v>
@@ -26314,13 +26314,13 @@
         <v>-0</v>
       </c>
       <c r="CVZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWA3" t="n">
         <v>-0</v>
       </c>
       <c r="CWB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWC3" t="n">
         <v>-0</v>
@@ -26329,25 +26329,25 @@
         <v>-0</v>
       </c>
       <c r="CWE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWF3" t="n">
         <v>-0</v>
       </c>
       <c r="CWG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWH3" t="n">
         <v>-0</v>
       </c>
       <c r="CWI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWJ3" t="n">
         <v>-0</v>
       </c>
       <c r="CWK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWL3" t="n">
         <v>-0</v>
@@ -26359,19 +26359,19 @@
         <v>-0</v>
       </c>
       <c r="CWO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWP3" t="n">
         <v>-0</v>
       </c>
       <c r="CWQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWT3" t="n">
         <v>-0</v>
@@ -26380,19 +26380,19 @@
         <v>-0</v>
       </c>
       <c r="CWV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWW3" t="n">
         <v>-0</v>
       </c>
       <c r="CWX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXA3" t="n">
         <v>-0</v>
@@ -26401,7 +26401,7 @@
         <v>-0</v>
       </c>
       <c r="CXC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXD3" t="n">
         <v>-0</v>
@@ -26413,7 +26413,7 @@
         <v>-0</v>
       </c>
       <c r="CXG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXH3" t="n">
         <v>-0</v>
@@ -26422,37 +26422,37 @@
         <v>-0</v>
       </c>
       <c r="CXJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXQ3" t="n">
         <v>-0</v>
       </c>
       <c r="CXR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXS3" t="n">
         <v>-0</v>
       </c>
       <c r="CXT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXU3" t="n">
         <v>-0</v>
@@ -26467,22 +26467,22 @@
         <v>-0</v>
       </c>
       <c r="CXY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXZ3" t="n">
         <v>-0</v>
       </c>
       <c r="CYA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CYC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CYE3" t="n">
         <v>-0</v>
@@ -26500,10 +26500,10 @@
         <v>-0</v>
       </c>
       <c r="CYJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CYK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYL3" t="n">
         <v>-0</v>
@@ -26536,7 +26536,7 @@
         <v>-0</v>
       </c>
       <c r="CYV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CYW3" t="n">
         <v>-0</v>
@@ -26554,7 +26554,7 @@
         <v>-0</v>
       </c>
       <c r="CZB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZC3" t="n">
         <v>-0</v>
@@ -26572,7 +26572,7 @@
         <v>-0</v>
       </c>
       <c r="CZH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZI3" t="n">
         <v>-0</v>
@@ -26590,25 +26590,25 @@
         <v>-0</v>
       </c>
       <c r="CZN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZO3" t="n">
         <v>-0</v>
       </c>
       <c r="CZP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZU3" t="n">
         <v>-0</v>
@@ -26617,22 +26617,22 @@
         <v>-0</v>
       </c>
       <c r="CZW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZZ3" t="n">
         <v>-0</v>
       </c>
       <c r="DAA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DAC3" t="n">
         <v>-0</v>
@@ -26647,25 +26647,25 @@
         <v>-0</v>
       </c>
       <c r="DAG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAH3" t="n">
         <v>-0</v>
       </c>
       <c r="DAI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAJ3" t="n">
         <v>-0</v>
       </c>
       <c r="DAK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAL3" t="n">
         <v>-0</v>
       </c>
       <c r="DAM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAN3" t="n">
         <v>-0</v>
@@ -26680,28 +26680,28 @@
         <v>-0</v>
       </c>
       <c r="DAR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAS3" t="n">
         <v>-0</v>
       </c>
       <c r="DAT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DAU3" t="n">
         <v>-0</v>
       </c>
       <c r="DAV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DAW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DAY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAZ3" t="n">
         <v>-0</v>
@@ -26728,7 +26728,7 @@
         <v>-0</v>
       </c>
       <c r="DBH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBI3" t="n">
         <v>-0</v>
@@ -26740,19 +26740,19 @@
         <v>-0</v>
       </c>
       <c r="DBL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBM3" t="n">
         <v>-0</v>
       </c>
       <c r="DBN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBO3" t="n">
         <v>-0</v>
       </c>
       <c r="DBP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DBQ3" t="n">
         <v>-0</v>
@@ -26770,7 +26770,7 @@
         <v>-0</v>
       </c>
       <c r="DBV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBW3" t="n">
         <v>-0</v>
@@ -26782,10 +26782,10 @@
         <v>-0</v>
       </c>
       <c r="DBZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DCA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DCB3" t="n">
         <v>-0</v>
@@ -26803,13 +26803,13 @@
         <v>-0</v>
       </c>
       <c r="DCG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DCH3" t="n">
         <v>-0</v>
       </c>
       <c r="DCI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DCJ3" t="n">
         <v>-0</v>
@@ -26833,7 +26833,7 @@
         <v>-0</v>
       </c>
       <c r="DCQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DCR3" t="n">
         <v>-0</v>
@@ -26845,16 +26845,16 @@
         <v>-0</v>
       </c>
       <c r="DCU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DCV3" t="n">
         <v>-0</v>
       </c>
       <c r="DCW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DCX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DCY3" t="n">
         <v>-0</v>
@@ -26863,19 +26863,19 @@
         <v>-0</v>
       </c>
       <c r="DDA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DDB3" t="n">
         <v>-0</v>
       </c>
       <c r="DDC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DDD3" t="n">
         <v>-0</v>
       </c>
       <c r="DDE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DDF3" t="n">
         <v>-0</v>
@@ -26902,10 +26902,10 @@
         <v>-0</v>
       </c>
       <c r="DDN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DDO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DDP3" t="n">
         <v>-0</v>
@@ -26914,7 +26914,7 @@
         <v>-0</v>
       </c>
       <c r="DDR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DDS3" t="n">
         <v>-0</v>
@@ -26935,19 +26935,19 @@
         <v>-0</v>
       </c>
       <c r="DDY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DDZ3" t="n">
         <v>-0</v>
       </c>
       <c r="DEA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DEB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DEC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DED3" t="n">
         <v>-0</v>
@@ -26989,13 +26989,13 @@
         <v>-0</v>
       </c>
       <c r="DEQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DER3" t="n">
         <v>-0</v>
       </c>
       <c r="DES3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DET3" t="n">
         <v>-0</v>
@@ -27007,19 +27007,19 @@
         <v>-0</v>
       </c>
       <c r="DEW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DEX3" t="n">
         <v>-0</v>
       </c>
       <c r="DEY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DEZ3" t="n">
         <v>-0</v>
       </c>
       <c r="DFA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DFB3" t="n">
         <v>-0</v>
@@ -27055,7 +27055,7 @@
         <v>-0</v>
       </c>
       <c r="DFM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DFN3" t="n">
         <v>-0</v>
@@ -27067,7 +27067,7 @@
         <v>-0</v>
       </c>
       <c r="DFQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DFR3" t="n">
         <v>-0</v>
@@ -27103,31 +27103,31 @@
         <v>-0</v>
       </c>
       <c r="DGC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DGD3" t="n">
         <v>-0</v>
       </c>
       <c r="DGE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DGF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DGG3" t="n">
         <v>-0</v>
       </c>
       <c r="DGH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DGI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DGJ3" t="n">
         <v>-0</v>
       </c>
       <c r="DGK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DGL3" t="n">
         <v>-0</v>
@@ -27142,7 +27142,7 @@
         <v>-0</v>
       </c>
       <c r="DGP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DGQ3" t="n">
         <v>-0</v>
@@ -27172,13 +27172,13 @@
         <v>-0</v>
       </c>
       <c r="DGZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DHA3" t="n">
         <v>-0</v>
       </c>
       <c r="DHB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DHC3" t="n">
         <v>-0</v>
@@ -27214,7 +27214,7 @@
         <v>-0</v>
       </c>
       <c r="DHN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DHO3" t="n">
         <v>-0</v>
@@ -27241,7 +27241,7 @@
         <v>-0</v>
       </c>
       <c r="DHW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DHX3" t="n">
         <v>-0</v>
@@ -27256,7 +27256,7 @@
         <v>-0</v>
       </c>
       <c r="DIB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DIC3" t="n">
         <v>-0</v>
@@ -27268,7 +27268,7 @@
         <v>-0</v>
       </c>
       <c r="DIF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DIG3" t="n">
         <v>-0</v>
@@ -27286,7 +27286,7 @@
         <v>-0</v>
       </c>
       <c r="DIL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DIM3" t="n">
         <v>-0</v>
@@ -27322,31 +27322,31 @@
         <v>-0</v>
       </c>
       <c r="DIX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DIY3" t="n">
         <v>-0</v>
       </c>
       <c r="DIZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DJA3" t="n">
         <v>-0</v>
       </c>
       <c r="DJB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DJC3" t="n">
         <v>-0</v>
       </c>
       <c r="DJD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DJE3" t="n">
         <v>-0</v>
       </c>
       <c r="DJF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DJG3" t="n">
         <v>-0</v>
@@ -27391,13 +27391,13 @@
         <v>-0</v>
       </c>
       <c r="DJU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DJV3" t="n">
         <v>-0</v>
       </c>
       <c r="DJW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DJX3" t="n">
         <v>-0</v>
@@ -27412,7 +27412,7 @@
         <v>-0</v>
       </c>
       <c r="DKB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DKC3" t="n">
         <v>-0</v>
@@ -27433,7 +27433,7 @@
         <v>-0</v>
       </c>
       <c r="DKI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DKJ3" t="n">
         <v>-0</v>

--- a/data/experiment2/node5/c_iter.xlsx
+++ b/data/experiment2/node5/c_iter.xlsx
@@ -9521,7 +9521,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AD2" t="n">
         <v>0.3687234695496014</v>
@@ -9539,7 +9539,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.3687234695496014</v>
@@ -9560,7 +9560,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.3687234695496014</v>
@@ -9572,7 +9572,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0.3687234695496014</v>
@@ -9587,7 +9587,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.3687234695496014</v>
@@ -9617,13 +9617,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
         <v>0.3687234695496014</v>
@@ -9644,7 +9644,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BS2" t="n">
         <v>0.3687234695496014</v>
@@ -9692,25 +9692,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CO2" t="n">
         <v>0.3687234695496014</v>
@@ -9719,28 +9719,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CY2" t="n">
         <v>0.3687234695496014</v>
@@ -9758,7 +9758,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DE2" t="n">
         <v>0.3687234695496014</v>
@@ -9779,10 +9779,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DM2" t="n">
         <v>0.3687234695496014</v>
@@ -9794,7 +9794,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DQ2" t="n">
         <v>0.3687234695496014</v>
@@ -9806,7 +9806,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DU2" t="n">
         <v>0.3687234695496014</v>
@@ -9824,7 +9824,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="EA2" t="n">
         <v>0.3687234695496014</v>
@@ -9839,7 +9839,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="EF2" t="n">
         <v>0.3687234695496014</v>
@@ -9854,7 +9854,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="EK2" t="n">
         <v>0.3687234695496014</v>
@@ -9863,19 +9863,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="EN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="EP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
         <v>0.3687234695496014</v>
@@ -9920,7 +9920,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="FG2" t="n">
         <v>0.3687234695496014</v>
@@ -9944,7 +9944,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="FO2" t="n">
         <v>0.3687234695496014</v>
@@ -9974,7 +9974,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="FY2" t="n">
         <v>0.3687234695496014</v>
@@ -9998,7 +9998,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
         <v>0.3687234695496014</v>
@@ -10082,7 +10082,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="HH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="HI2" t="n">
         <v>0.3687234695496014</v>
@@ -10244,7 +10244,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="JK2" t="n">
         <v>0.3687234695496014</v>
@@ -10286,7 +10286,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="JY2" t="n">
         <v>0.3687234695496014</v>
@@ -10307,7 +10307,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="KF2" t="n">
         <v>0.3687234695496014</v>
@@ -10367,7 +10367,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="KY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="KZ2" t="n">
         <v>0.3687234695496014</v>
@@ -10379,7 +10379,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="LC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="LD2" t="n">
         <v>0.3687234695496014</v>
@@ -10409,7 +10409,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="LN2" t="n">
         <v>0.3687234695496014</v>
@@ -10418,7 +10418,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="LP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="LQ2" t="n">
         <v>0.3687234695496014</v>
@@ -10433,19 +10433,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="LU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="LV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="LW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="LX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="LY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="LZ2" t="n">
         <v>0.3687234695496014</v>
@@ -10484,7 +10484,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ML2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="MM2" t="n">
         <v>0.3687234695496014</v>
@@ -10496,13 +10496,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="MP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="MQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="MR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="MS2" t="n">
         <v>0.3687234695496014</v>
@@ -10514,7 +10514,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="MW2" t="n">
         <v>0.3687234695496014</v>
@@ -10526,7 +10526,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="NA2" t="n">
         <v>0.3687234695496014</v>
@@ -10541,7 +10541,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="NE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="NF2" t="n">
         <v>0.3687234695496014</v>
@@ -10595,7 +10595,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="NW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="NX2" t="n">
         <v>0.3687234695496014</v>
@@ -10604,19 +10604,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="OA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="OC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="OE2" t="n">
         <v>0.3687234695496014</v>
@@ -10631,7 +10631,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="OI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="OJ2" t="n">
         <v>0.3687234695496014</v>
@@ -10691,7 +10691,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="PC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="PD2" t="n">
         <v>0.3687234695496014</v>
@@ -10712,7 +10712,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="PK2" t="n">
         <v>0.3687234695496014</v>
@@ -10748,7 +10748,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="PW2" t="n">
         <v>0.3687234695496014</v>
@@ -10757,7 +10757,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="PY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="PZ2" t="n">
         <v>0.3687234695496014</v>
@@ -10766,7 +10766,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="QC2" t="n">
         <v>0.3687234695496014</v>
@@ -10796,7 +10796,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="QM2" t="n">
         <v>0.3687234695496014</v>
@@ -10826,13 +10826,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="QV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="QW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="QX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="QY2" t="n">
         <v>0.3687234695496014</v>
@@ -10850,13 +10850,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="RD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="RF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="RG2" t="n">
         <v>0.3687234695496014</v>
@@ -10934,7 +10934,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="SF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="SG2" t="n">
         <v>0.3687234695496014</v>
@@ -10961,13 +10961,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="SO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="SP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="SQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="SR2" t="n">
         <v>0.3687234695496014</v>
@@ -11018,7 +11018,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="TH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="TI2" t="n">
         <v>0.3687234695496014</v>
@@ -11066,10 +11066,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="TX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="TY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="TZ2" t="n">
         <v>0.3687234695496014</v>
@@ -11078,7 +11078,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="UB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="UC2" t="n">
         <v>0.3687234695496014</v>
@@ -11087,7 +11087,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="UE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="UF2" t="n">
         <v>0.3687234695496014</v>
@@ -11111,7 +11111,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="UM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="UN2" t="n">
         <v>0.3687234695496014</v>
@@ -11138,16 +11138,16 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="UV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="UW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="UX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="UY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="UZ2" t="n">
         <v>0.3687234695496014</v>
@@ -11159,13 +11159,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="VC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="VD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="VE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="VF2" t="n">
         <v>0.3687234695496014</v>
@@ -11174,7 +11174,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="VH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="VI2" t="n">
         <v>0.3687234695496014</v>
@@ -11225,10 +11225,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="VY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="VZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="WA2" t="n">
         <v>0.3687234695496014</v>
@@ -11267,7 +11267,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="WM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="WN2" t="n">
         <v>0.3687234695496014</v>
@@ -11309,7 +11309,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="XA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="XB2" t="n">
         <v>0.3687234695496014</v>
@@ -11330,10 +11330,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="XH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="XI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="XJ2" t="n">
         <v>0.3687234695496014</v>
@@ -11342,7 +11342,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="XL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="XM2" t="n">
         <v>0.3687234695496014</v>
@@ -11375,13 +11375,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="XW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="XX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="XY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="XZ2" t="n">
         <v>0.3687234695496014</v>
@@ -11438,16 +11438,16 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="YR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="YS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="YT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="YU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="YV2" t="n">
         <v>0.3687234695496014</v>
@@ -11459,7 +11459,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="YY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="YZ2" t="n">
         <v>0.3687234695496014</v>
@@ -11495,7 +11495,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ZK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ZL2" t="n">
         <v>0.3687234695496014</v>
@@ -11522,13 +11522,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ZT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ZU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ZV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ZW2" t="n">
         <v>0.3687234695496014</v>
@@ -11561,7 +11561,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AAG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AAH2" t="n">
         <v>0.3687234695496014</v>
@@ -11573,7 +11573,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AAK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AAL2" t="n">
         <v>0.3687234695496014</v>
@@ -11630,7 +11630,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ABD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ABE2" t="n">
         <v>0.3687234695496014</v>
@@ -11672,13 +11672,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ABR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ABS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ABT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ABU2" t="n">
         <v>0.3687234695496014</v>
@@ -11693,10 +11693,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ABY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ABZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ACA2" t="n">
         <v>0.3687234695496014</v>
@@ -11732,7 +11732,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ACL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ACM2" t="n">
         <v>0.3687234695496014</v>
@@ -11786,7 +11786,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ADD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ADE2" t="n">
         <v>0.3687234695496014</v>
@@ -11843,7 +11843,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ADW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ADX2" t="n">
         <v>0.3687234695496014</v>
@@ -11858,7 +11858,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AEB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AEC2" t="n">
         <v>0.3687234695496014</v>
@@ -11912,10 +11912,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AET2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AEV2" t="n">
         <v>0.3687234695496014</v>
@@ -11978,7 +11978,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AFP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AFQ2" t="n">
         <v>0.3687234695496014</v>
@@ -11996,7 +11996,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AFV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AFW2" t="n">
         <v>0.3687234695496014</v>
@@ -12032,7 +12032,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AGH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AGI2" t="n">
         <v>0.3687234695496014</v>
@@ -12044,7 +12044,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AGL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AGM2" t="n">
         <v>0.3687234695496014</v>
@@ -12077,7 +12077,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AGW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AGX2" t="n">
         <v>0.3687234695496014</v>
@@ -12086,13 +12086,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AGZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AHA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AHC2" t="n">
         <v>0.3687234695496014</v>
@@ -12101,7 +12101,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AHE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AHF2" t="n">
         <v>0.3687234695496014</v>
@@ -12131,7 +12131,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AHO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AHP2" t="n">
         <v>0.3687234695496014</v>
@@ -12170,7 +12170,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AIC2" t="n">
         <v>0.3687234695496014</v>
@@ -12179,7 +12179,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AIE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AIF2" t="n">
         <v>0.3687234695496014</v>
@@ -12245,7 +12245,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AJA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AJB2" t="n">
         <v>0.3687234695496014</v>
@@ -12275,7 +12275,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AJK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AJL2" t="n">
         <v>0.3687234695496014</v>
@@ -12302,7 +12302,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AJT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AJU2" t="n">
         <v>0.3687234695496014</v>
@@ -12317,10 +12317,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AJY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AJZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AKA2" t="n">
         <v>0.3687234695496014</v>
@@ -12335,7 +12335,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AKE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AKF2" t="n">
         <v>0.3687234695496014</v>
@@ -12371,7 +12371,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AKQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AKR2" t="n">
         <v>0.3687234695496014</v>
@@ -12416,7 +12416,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ALF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ALG2" t="n">
         <v>0.3687234695496014</v>
@@ -12431,7 +12431,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ALK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ALL2" t="n">
         <v>0.3687234695496014</v>
@@ -12449,7 +12449,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ALQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ALR2" t="n">
         <v>0.3687234695496014</v>
@@ -12482,7 +12482,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AMB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AMC2" t="n">
         <v>0.3687234695496014</v>
@@ -12503,7 +12503,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AMI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AMJ2" t="n">
         <v>0.3687234695496014</v>
@@ -12524,7 +12524,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AMP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AMQ2" t="n">
         <v>0.3687234695496014</v>
@@ -12560,13 +12560,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ANB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ANC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AND2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ANE2" t="n">
         <v>0.3687234695496014</v>
@@ -12578,7 +12578,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ANH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ANI2" t="n">
         <v>0.3687234695496014</v>
@@ -12605,7 +12605,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ANQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ANR2" t="n">
         <v>0.3687234695496014</v>
@@ -12614,13 +12614,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ANT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ANU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ANV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ANW2" t="n">
         <v>0.3687234695496014</v>
@@ -12653,7 +12653,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AOG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AOH2" t="n">
         <v>0.3687234695496014</v>
@@ -12686,7 +12686,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AOR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AOS2" t="n">
         <v>0.3687234695496014</v>
@@ -12698,7 +12698,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AOV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AOW2" t="n">
         <v>0.3687234695496014</v>
@@ -12725,7 +12725,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="APE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="APF2" t="n">
         <v>0.3687234695496014</v>
@@ -12743,7 +12743,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="APK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="APL2" t="n">
         <v>0.3687234695496014</v>
@@ -12758,7 +12758,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="APP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="APQ2" t="n">
         <v>0.3687234695496014</v>
@@ -12794,7 +12794,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AQB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AQC2" t="n">
         <v>0.3687234695496014</v>
@@ -12806,7 +12806,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AQF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AQG2" t="n">
         <v>0.3687234695496014</v>
@@ -12821,7 +12821,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AQK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AQL2" t="n">
         <v>0.3687234695496014</v>
@@ -12839,7 +12839,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AQQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AQR2" t="n">
         <v>0.3687234695496014</v>
@@ -12866,7 +12866,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AQZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ARA2" t="n">
         <v>0.3687234695496014</v>
@@ -12893,28 +12893,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ARI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ARJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ARK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ARL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ARM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ARN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ARO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ARP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ARQ2" t="n">
         <v>0.3687234695496014</v>
@@ -12944,13 +12944,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ARZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ASA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ASB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ASC2" t="n">
         <v>0.3687234695496014</v>
@@ -12983,7 +12983,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ASM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ASN2" t="n">
         <v>0.3687234695496014</v>
@@ -12992,13 +12992,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ASP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ASQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="ASR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ASS2" t="n">
         <v>0.3687234695496014</v>
@@ -13040,7 +13040,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ATF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="ATG2" t="n">
         <v>0.3687234695496014</v>
@@ -13079,7 +13079,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="ATS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="ATT2" t="n">
         <v>0.3687234695496014</v>
@@ -13121,7 +13121,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AUG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AUH2" t="n">
         <v>0.3687234695496014</v>
@@ -13136,7 +13136,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AUL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AUM2" t="n">
         <v>0.3687234695496014</v>
@@ -13145,19 +13145,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AUO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AUP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AUQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AUR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AUS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AUT2" t="n">
         <v>0.3687234695496014</v>
@@ -13205,7 +13205,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AVI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AVJ2" t="n">
         <v>0.3687234695496014</v>
@@ -13307,13 +13307,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AWQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AWR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AWS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AWT2" t="n">
         <v>0.3687234695496014</v>
@@ -13343,7 +13343,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AXC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AXD2" t="n">
         <v>0.3687234695496014</v>
@@ -13355,19 +13355,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AXG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AXH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AXI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AXJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AXK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AXL2" t="n">
         <v>0.3687234695496014</v>
@@ -13418,13 +13418,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AYB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AYC2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AYD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AYE2" t="n">
         <v>0.3687234695496014</v>
@@ -13454,7 +13454,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AYN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AYO2" t="n">
         <v>0.3687234695496014</v>
@@ -13466,13 +13466,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AYR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AYS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AYT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AYU2" t="n">
         <v>0.3687234695496014</v>
@@ -13496,10 +13496,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AZB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AZC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AZD2" t="n">
         <v>0.3687234695496014</v>
@@ -13541,13 +13541,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AZQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AZR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="AZS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="AZT2" t="n">
         <v>0.3687234695496014</v>
@@ -13559,7 +13559,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AZW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="AZX2" t="n">
         <v>0.3687234695496014</v>
@@ -13568,7 +13568,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="AZZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BAA2" t="n">
         <v>0.3687234695496014</v>
@@ -13580,7 +13580,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BAD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BAE2" t="n">
         <v>0.3687234695496014</v>
@@ -13634,13 +13634,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BAV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BAW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BAX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BAY2" t="n">
         <v>0.3687234695496014</v>
@@ -13652,7 +13652,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BBB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BBC2" t="n">
         <v>0.3687234695496014</v>
@@ -13682,7 +13682,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BBL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BBM2" t="n">
         <v>0.3687234695496014</v>
@@ -13697,7 +13697,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BBQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BBR2" t="n">
         <v>0.3687234695496014</v>
@@ -13706,13 +13706,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BBT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BBU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BBV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BBW2" t="n">
         <v>0.3687234695496014</v>
@@ -13757,7 +13757,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BCK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BCL2" t="n">
         <v>0.3687234695496014</v>
@@ -13766,25 +13766,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BCN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BCO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BCP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BCQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BCR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BCS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BCT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BCU2" t="n">
         <v>0.3687234695496014</v>
@@ -13799,7 +13799,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BCY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BCZ2" t="n">
         <v>0.3687234695496014</v>
@@ -13817,13 +13817,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BDE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BDF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BDG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BDH2" t="n">
         <v>0.3687234695496014</v>
@@ -13865,7 +13865,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BDU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BDV2" t="n">
         <v>0.3687234695496014</v>
@@ -13898,7 +13898,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BEF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BEG2" t="n">
         <v>0.3687234695496014</v>
@@ -13922,7 +13922,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BEN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BEO2" t="n">
         <v>0.3687234695496014</v>
@@ -13940,7 +13940,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BET2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BEU2" t="n">
         <v>0.3687234695496014</v>
@@ -13949,7 +13949,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BEW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BEX2" t="n">
         <v>0.3687234695496014</v>
@@ -13961,13 +13961,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BFA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BFB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BFC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BFD2" t="n">
         <v>0.3687234695496014</v>
@@ -13979,16 +13979,16 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BFG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BFH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BFI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BFJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BFK2" t="n">
         <v>0.3687234695496014</v>
@@ -14036,7 +14036,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BFZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BGA2" t="n">
         <v>0.3687234695496014</v>
@@ -14054,7 +14054,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BGF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BGG2" t="n">
         <v>0.3687234695496014</v>
@@ -14075,7 +14075,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BGM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BGN2" t="n">
         <v>0.3687234695496014</v>
@@ -14099,7 +14099,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BGU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BGV2" t="n">
         <v>0.3687234695496014</v>
@@ -14117,7 +14117,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BHA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BHB2" t="n">
         <v>0.3687234695496014</v>
@@ -14129,7 +14129,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BHE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BHF2" t="n">
         <v>0.3687234695496014</v>
@@ -14141,10 +14141,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BHI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BHJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BHK2" t="n">
         <v>0.3687234695496014</v>
@@ -14156,7 +14156,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BHN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BHO2" t="n">
         <v>0.3687234695496014</v>
@@ -14165,13 +14165,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BHQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BHR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BHS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BHT2" t="n">
         <v>0.3687234695496014</v>
@@ -14180,7 +14180,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BHV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BHW2" t="n">
         <v>0.3687234695496014</v>
@@ -14210,10 +14210,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BIF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BIG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BIH2" t="n">
         <v>0.3687234695496014</v>
@@ -14231,7 +14231,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BIM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BIN2" t="n">
         <v>0.3687234695496014</v>
@@ -14246,10 +14246,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BIR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BIS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BIT2" t="n">
         <v>0.3687234695496014</v>
@@ -14258,7 +14258,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BIV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BIW2" t="n">
         <v>0.3687234695496014</v>
@@ -14297,19 +14297,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BJI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BJK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BJM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJN2" t="n">
         <v>0.3687234695496014</v>
@@ -14321,19 +14321,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BJQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BJS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BJU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BJV2" t="n">
         <v>0.3687234695496014</v>
@@ -14360,19 +14360,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BKD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BKE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BKF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BKG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BKH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BKI2" t="n">
         <v>0.3687234695496014</v>
@@ -14405,7 +14405,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BKS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BKT2" t="n">
         <v>0.3687234695496014</v>
@@ -14423,13 +14423,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BKY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BKZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BLA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BLB2" t="n">
         <v>0.3687234695496014</v>
@@ -14471,7 +14471,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BLO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BLP2" t="n">
         <v>0.3687234695496014</v>
@@ -14495,7 +14495,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BLW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BLX2" t="n">
         <v>0.3687234695496014</v>
@@ -14504,22 +14504,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BLZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BMA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BMB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BMC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BMD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BME2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BMF2" t="n">
         <v>0.3687234695496014</v>
@@ -14537,7 +14537,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BMK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BML2" t="n">
         <v>0.3687234695496014</v>
@@ -14549,7 +14549,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BMO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BMP2" t="n">
         <v>0.3687234695496014</v>
@@ -14561,19 +14561,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BMS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BMT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BMU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BMV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BMW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BMX2" t="n">
         <v>0.3687234695496014</v>
@@ -14612,7 +14612,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BNJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BNK2" t="n">
         <v>0.3687234695496014</v>
@@ -14624,7 +14624,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BNN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BNO2" t="n">
         <v>0.3687234695496014</v>
@@ -14651,7 +14651,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BNW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BNX2" t="n">
         <v>0.3687234695496014</v>
@@ -14663,7 +14663,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BOA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOB2" t="n">
         <v>0.3687234695496014</v>
@@ -14681,7 +14681,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BOG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BOH2" t="n">
         <v>0.3687234695496014</v>
@@ -14711,7 +14711,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BOQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BOR2" t="n">
         <v>0.3687234695496014</v>
@@ -14729,13 +14729,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BOW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BOX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BOY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BOZ2" t="n">
         <v>0.3687234695496014</v>
@@ -14747,7 +14747,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BPC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BPD2" t="n">
         <v>0.3687234695496014</v>
@@ -14756,13 +14756,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BPF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BPG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BPH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BPI2" t="n">
         <v>0.3687234695496014</v>
@@ -14795,7 +14795,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BPS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BPT2" t="n">
         <v>0.3687234695496014</v>
@@ -14816,7 +14816,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BPZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BQA2" t="n">
         <v>0.3687234695496014</v>
@@ -14852,19 +14852,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BQL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BQM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BQN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BQO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BQP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BQQ2" t="n">
         <v>0.3687234695496014</v>
@@ -14882,7 +14882,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BQV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BQW2" t="n">
         <v>0.3687234695496014</v>
@@ -14906,28 +14906,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BRE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BRF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BRG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BRH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BRI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BRJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BRK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BRL2" t="n">
         <v>0.3687234695496014</v>
@@ -14948,7 +14948,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BRS2" t="n">
         <v>0.3687234695496014</v>
@@ -14963,7 +14963,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BRX2" t="n">
         <v>0.3687234695496014</v>
@@ -14972,7 +14972,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BRZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BSA2" t="n">
         <v>0.3687234695496014</v>
@@ -14984,13 +14984,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BSD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BSE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BSF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BSG2" t="n">
         <v>0.3687234695496014</v>
@@ -15011,7 +15011,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BSM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BSN2" t="n">
         <v>0.3687234695496014</v>
@@ -15050,7 +15050,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BSZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTA2" t="n">
         <v>0.3687234695496014</v>
@@ -15062,7 +15062,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BTD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BTE2" t="n">
         <v>0.3687234695496014</v>
@@ -15077,13 +15077,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BTI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTL2" t="n">
         <v>0.3687234695496014</v>
@@ -15095,13 +15095,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BTO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BTP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BTR2" t="n">
         <v>0.3687234695496014</v>
@@ -15110,22 +15110,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BTT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BTX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BTY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BTZ2" t="n">
         <v>0.3687234695496014</v>
@@ -15140,7 +15140,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BUD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BUE2" t="n">
         <v>0.3687234695496014</v>
@@ -15164,7 +15164,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BUL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUM2" t="n">
         <v>0.3687234695496014</v>
@@ -15182,7 +15182,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BUR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUS2" t="n">
         <v>0.3687234695496014</v>
@@ -15191,7 +15191,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BUU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BUV2" t="n">
         <v>0.3687234695496014</v>
@@ -15200,7 +15200,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BUX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BUY2" t="n">
         <v>0.3687234695496014</v>
@@ -15215,25 +15215,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BVC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BVF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BVH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVJ2" t="n">
         <v>0.3687234695496014</v>
@@ -15254,13 +15254,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BVP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BVR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BVS2" t="n">
         <v>0.3687234695496014</v>
@@ -15269,13 +15269,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BVU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BVW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BVX2" t="n">
         <v>0.3687234695496014</v>
@@ -15299,19 +15299,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BWE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BWG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BWI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWJ2" t="n">
         <v>0.3687234695496014</v>
@@ -15329,10 +15329,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BWO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BWP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWQ2" t="n">
         <v>0.3687234695496014</v>
@@ -15344,19 +15344,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BWT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BWV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BWX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BWY2" t="n">
         <v>0.3687234695496014</v>
@@ -15383,7 +15383,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BXG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BXH2" t="n">
         <v>0.3687234695496014</v>
@@ -15395,7 +15395,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BXK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BXL2" t="n">
         <v>0.3687234695496014</v>
@@ -15413,19 +15413,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BXQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BXR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BXS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BXT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BXU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BXV2" t="n">
         <v>0.3687234695496014</v>
@@ -15455,40 +15455,40 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BYE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BYF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BYH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BYJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BYL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BYM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BYN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BYP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BYQ2" t="n">
         <v>0.3687234695496014</v>
@@ -15500,7 +15500,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BYT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BYU2" t="n">
         <v>0.3687234695496014</v>
@@ -15518,13 +15518,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BYZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BZA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BZB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BZC2" t="n">
         <v>0.3687234695496014</v>
@@ -15557,31 +15557,31 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BZM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BZN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BZO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BZP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BZQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BZR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BZS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BZT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BZU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="BZV2" t="n">
         <v>0.3687234695496014</v>
@@ -15590,19 +15590,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="BZX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="BZY2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="BZZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CAB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAC2" t="n">
         <v>0.3687234695496014</v>
@@ -15614,19 +15614,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CAF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CAH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAK2" t="n">
         <v>0.3687234695496014</v>
@@ -15650,10 +15650,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CAR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CAT2" t="n">
         <v>0.3687234695496014</v>
@@ -15671,7 +15671,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CAY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CAZ2" t="n">
         <v>0.3687234695496014</v>
@@ -15686,7 +15686,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CBD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBE2" t="n">
         <v>0.3687234695496014</v>
@@ -15704,7 +15704,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CBJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CBK2" t="n">
         <v>0.3687234695496014</v>
@@ -15719,13 +15719,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CBO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CBQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CBR2" t="n">
         <v>0.3687234695496014</v>
@@ -15752,7 +15752,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CBZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CCA2" t="n">
         <v>0.3687234695496014</v>
@@ -15761,34 +15761,34 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CCC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CCE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CCG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CCI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CCK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CCL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCM2" t="n">
         <v>0.3687234695496014</v>
@@ -15803,13 +15803,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CCQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CCS2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CCT2" t="n">
         <v>0.3687234695496014</v>
@@ -15824,7 +15824,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CCX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CCY2" t="n">
         <v>0.3687234695496014</v>
@@ -15845,28 +15845,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CDE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CDG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CDI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CDL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDM2" t="n">
         <v>0.3687234695496014</v>
@@ -15884,19 +15884,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CDR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CDT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CDV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CDW2" t="n">
         <v>0.3687234695496014</v>
@@ -15908,13 +15908,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CDZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CEA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CEB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CEC2" t="n">
         <v>0.3687234695496014</v>
@@ -15938,7 +15938,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CEJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CEK2" t="n">
         <v>0.3687234695496014</v>
@@ -15959,25 +15959,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CEQ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CER2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CES2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CET2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CEU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CEV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CEW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CEX2" t="n">
         <v>0.3687234695496014</v>
@@ -15992,10 +15992,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CFB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFD2" t="n">
         <v>0.3687234695496014</v>
@@ -16016,49 +16016,49 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CFJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CFU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CFX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CFY2" t="n">
         <v>0.3687234695496014</v>
@@ -16070,7 +16070,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CGB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGC2" t="n">
         <v>0.3687234695496014</v>
@@ -16082,7 +16082,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CGF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CGG2" t="n">
         <v>0.3687234695496014</v>
@@ -16094,7 +16094,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CGJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGK2" t="n">
         <v>0.3687234695496014</v>
@@ -16124,19 +16124,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CGT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CGU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CGV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CGW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CGX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CGY2" t="n">
         <v>0.3687234695496014</v>
@@ -16145,13 +16145,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CHA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CHC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHD2" t="n">
         <v>0.3687234695496014</v>
@@ -16163,13 +16163,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CHG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CHH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CHI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHJ2" t="n">
         <v>0.3687234695496014</v>
@@ -16181,19 +16181,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CHM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CHO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CHQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHR2" t="n">
         <v>0.3687234695496014</v>
@@ -16205,7 +16205,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CHU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHV2" t="n">
         <v>0.3687234695496014</v>
@@ -16217,13 +16217,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CHY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CHZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CIA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIB2" t="n">
         <v>0.3687234695496014</v>
@@ -16235,7 +16235,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CIE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIF2" t="n">
         <v>0.3687234695496014</v>
@@ -16256,10 +16256,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CIL2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CIN2" t="n">
         <v>0.3687234695496014</v>
@@ -16286,7 +16286,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CIV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CIW2" t="n">
         <v>0.3687234695496014</v>
@@ -16298,7 +16298,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CIZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJA2" t="n">
         <v>0.3687234695496014</v>
@@ -16316,7 +16316,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CJF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJG2" t="n">
         <v>0.3687234695496014</v>
@@ -16328,7 +16328,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CJJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CJK2" t="n">
         <v>0.3687234695496014</v>
@@ -16340,7 +16340,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CJN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CJO2" t="n">
         <v>0.3687234695496014</v>
@@ -16352,13 +16352,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CJR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CJT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CJU2" t="n">
         <v>0.3687234695496014</v>
@@ -16379,31 +16379,31 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CKA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CKH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKJ2" t="n">
         <v>0.3687234695496014</v>
@@ -16412,13 +16412,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CKL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CKO2" t="n">
         <v>0.3687234695496014</v>
@@ -16430,19 +16430,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CKR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CKS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CKU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CKV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CKW2" t="n">
         <v>0.3687234695496014</v>
@@ -16466,13 +16466,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CLD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CLE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CLF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CLG2" t="n">
         <v>0.3687234695496014</v>
@@ -16490,13 +16490,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CLL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CLM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CLN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CLO2" t="n">
         <v>0.3687234695496014</v>
@@ -16508,19 +16508,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CLR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CLS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CLT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CLU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CLV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CLW2" t="n">
         <v>0.3687234695496014</v>
@@ -16532,7 +16532,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CLZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMA2" t="n">
         <v>0.3687234695496014</v>
@@ -16544,7 +16544,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CMD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CME2" t="n">
         <v>0.3687234695496014</v>
@@ -16556,31 +16556,31 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CMH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CMJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CML2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CMN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMO2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CMP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMQ2" t="n">
         <v>0.3687234695496014</v>
@@ -16595,7 +16595,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CMU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CMV2" t="n">
         <v>0.3687234695496014</v>
@@ -16607,7 +16607,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CMY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CMZ2" t="n">
         <v>0.3687234695496014</v>
@@ -16619,7 +16619,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CND2" t="n">
         <v>0.3687234695496014</v>
@@ -16631,7 +16631,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNH2" t="n">
         <v>0.3687234695496014</v>
@@ -16643,13 +16643,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CNM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNN2" t="n">
         <v>0.3687234695496014</v>
@@ -16661,16 +16661,16 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CNR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CNT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNU2" t="n">
         <v>0.3687234695496014</v>
@@ -16679,13 +16679,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CNW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CNX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CNY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CNZ2" t="n">
         <v>0.3687234695496014</v>
@@ -16694,7 +16694,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="COB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="COC2" t="n">
         <v>0.3687234695496014</v>
@@ -16730,7 +16730,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CON2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="COO2" t="n">
         <v>0.3687234695496014</v>
@@ -16742,13 +16742,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="COR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="COS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="COT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="COU2" t="n">
         <v>0.3687234695496014</v>
@@ -16760,7 +16760,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="COX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="COY2" t="n">
         <v>0.3687234695496014</v>
@@ -16811,7 +16811,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CPO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CPP2" t="n">
         <v>0.3687234695496014</v>
@@ -16823,34 +16823,34 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CPS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CPT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CPU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CPV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CPW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CPX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CPY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CPZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQC2" t="n">
         <v>0.3687234695496014</v>
@@ -16871,13 +16871,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CQI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CQK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQL2" t="n">
         <v>0.3687234695496014</v>
@@ -16889,7 +16889,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CQO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQP2" t="n">
         <v>0.3687234695496014</v>
@@ -16901,7 +16901,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CQS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CQT2" t="n">
         <v>0.3687234695496014</v>
@@ -16913,13 +16913,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CQW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQX2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CQY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CQZ2" t="n">
         <v>0.3687234695496014</v>
@@ -16931,7 +16931,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CRC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRD2" t="n">
         <v>0.3687234695496014</v>
@@ -16943,25 +16943,25 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CRG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CRI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CRJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CRK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CRL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CRM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CRN2" t="n">
         <v>0.3687234695496014</v>
@@ -16976,7 +16976,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CRR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CRS2" t="n">
         <v>0.3687234695496014</v>
@@ -17000,13 +17000,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CRZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CSA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSB2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CSC2" t="n">
         <v>0.3687234695496014</v>
@@ -17021,7 +17021,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CSG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSH2" t="n">
         <v>0.3687234695496014</v>
@@ -17033,37 +17033,37 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CSK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CSL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CSN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CSP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CST2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CSU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CSV2" t="n">
         <v>0.3687234695496014</v>
@@ -17093,13 +17093,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CTE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CTF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CTG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CTH2" t="n">
         <v>0.3687234695496014</v>
@@ -17108,7 +17108,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CTJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CTK2" t="n">
         <v>0.3687234695496014</v>
@@ -17126,13 +17126,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CTP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CTQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CTR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CTS2" t="n">
         <v>0.3687234695496014</v>
@@ -17150,13 +17150,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CTX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CTY2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CTZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUA2" t="n">
         <v>0.3687234695496014</v>
@@ -17183,7 +17183,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CUI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUJ2" t="n">
         <v>0.3687234695496014</v>
@@ -17192,16 +17192,16 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CUL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CUM2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CUN2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CUO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUP2" t="n">
         <v>0.3687234695496014</v>
@@ -17213,13 +17213,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CUS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CUU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUV2" t="n">
         <v>0.3687234695496014</v>
@@ -17228,40 +17228,40 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CUX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CUY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CUZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVA2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVC2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CVJ2" t="n">
         <v>0.3687234695496014</v>
@@ -17288,13 +17288,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CVR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CVT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CVU2" t="n">
         <v>0.3687234695496014</v>
@@ -17315,7 +17315,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CWA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWB2" t="n">
         <v>0.3687234695496014</v>
@@ -17324,7 +17324,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CWD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWE2" t="n">
         <v>0.3687234695496014</v>
@@ -17336,22 +17336,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CWH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWM2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWN2" t="n">
         <v>0.3687234695496014</v>
@@ -17360,19 +17360,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CWP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWR2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CWS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CWT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWU2" t="n">
         <v>0.3687234695496014</v>
@@ -17387,7 +17387,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CWY2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CWZ2" t="n">
         <v>0.3687234695496014</v>
@@ -17402,19 +17402,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CXD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CXF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CXH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXI2" t="n">
         <v>0.3687234695496014</v>
@@ -17426,7 +17426,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CXL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXM2" t="n">
         <v>0.3687234695496014</v>
@@ -17438,7 +17438,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CXP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXQ2" t="n">
         <v>0.3687234695496014</v>
@@ -17447,28 +17447,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CXS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CXV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXW2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CXX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CXY2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CXZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYA2" t="n">
         <v>0.3687234695496014</v>
@@ -17480,31 +17480,31 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CYD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYE2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CYF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CYH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CYJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYK2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CYL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYM2" t="n">
         <v>0.3687234695496014</v>
@@ -17525,10 +17525,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CYS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CYT2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CYU2" t="n">
         <v>0.3687234695496014</v>
@@ -17537,7 +17537,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CYW2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CYX2" t="n">
         <v>0.3687234695496014</v>
@@ -17558,34 +17558,34 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CZD2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZE2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CZF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZG2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CZJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZL2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CZM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZN2" t="n">
         <v>0.3687234695496014</v>
@@ -17594,22 +17594,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CZP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="CZQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CZS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZT2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="CZU2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="CZV2" t="n">
         <v>0.3687234695496014</v>
@@ -17624,7 +17624,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="CZZ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DAA2" t="n">
         <v>0.3687234695496014</v>
@@ -17654,7 +17654,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DAJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAK2" t="n">
         <v>0.3687234695496014</v>
@@ -17666,7 +17666,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DAN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAO2" t="n">
         <v>0.3687234695496014</v>
@@ -17696,40 +17696,40 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DAX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DAY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DAZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBA2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DBB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DBD2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DBF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DBG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DBH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DBI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBJ2" t="n">
         <v>0.3687234695496014</v>
@@ -17756,19 +17756,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DBR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBS2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DBT2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBU2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DBV2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DBW2" t="n">
         <v>0.3687234695496014</v>
@@ -17777,28 +17777,28 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DBY2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DBZ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DCA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DCB2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DCC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DCD2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DCE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DCF2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DCG2" t="n">
         <v>0.3687234695496014</v>
@@ -17828,13 +17828,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DCP2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DCQ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DCR2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DCS2" t="n">
         <v>0.3687234695496014</v>
@@ -17852,13 +17852,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DCX2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DCY2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DCZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DDA2" t="n">
         <v>0.3687234695496014</v>
@@ -17915,7 +17915,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DDS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DDT2" t="n">
         <v>0.3687234695496014</v>
@@ -17924,7 +17924,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DDV2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DDW2" t="n">
         <v>0.3687234695496014</v>
@@ -17936,7 +17936,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DDZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DEA2" t="n">
         <v>0.3687234695496014</v>
@@ -17966,7 +17966,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DEJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DEK2" t="n">
         <v>0.3687234695496014</v>
@@ -17999,13 +17999,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DEU2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DEV2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DEW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DEX2" t="n">
         <v>0.3687234695496014</v>
@@ -18017,7 +18017,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DFA2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DFB2" t="n">
         <v>0.3687234695496014</v>
@@ -18041,13 +18041,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DFI2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DFJ2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DFK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DFL2" t="n">
         <v>0.3687234695496014</v>
@@ -18056,10 +18056,10 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DFN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DFO2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DFP2" t="n">
         <v>0.3687234695496014</v>
@@ -18107,7 +18107,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DGE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DGF2" t="n">
         <v>0.3687234695496014</v>
@@ -18125,7 +18125,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DGK2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DGL2" t="n">
         <v>0.3687234695496014</v>
@@ -18134,7 +18134,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DGN2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DGO2" t="n">
         <v>0.3687234695496014</v>
@@ -18161,7 +18161,7 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DGW2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DGX2" t="n">
         <v>0.3687234695496014</v>
@@ -18188,46 +18188,46 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DHF2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DHG2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DHH2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DHI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DHJ2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DHK2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DHL2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DHM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DHN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DHO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DHP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DHQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DHR2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DHS2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DHT2" t="n">
         <v>0.3687234695496014</v>
@@ -18254,22 +18254,22 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DIB2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DIC2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DID2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DIE2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DIF2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DIG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DIH2" t="n">
         <v>0.3687234695496014</v>
@@ -18287,19 +18287,19 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DIM2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DIN2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DIO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DIP2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DIQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DIR2" t="n">
         <v>0.3687234695496014</v>
@@ -18320,13 +18320,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DIX2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DIY2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DIZ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DJA2" t="n">
         <v>0.3687234695496014</v>
@@ -18347,13 +18347,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DJG2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DJH2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DJI2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DJJ2" t="n">
         <v>0.3687234695496014</v>
@@ -18371,13 +18371,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DJO2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DJP2" t="n">
-        <v>0.3687234695496014</v>
+        <v>-0</v>
       </c>
       <c r="DJQ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DJR2" t="n">
         <v>0.3687234695496014</v>
@@ -18428,13 +18428,13 @@
         <v>0.3687234695496014</v>
       </c>
       <c r="DKH2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
       <c r="DKI2" t="n">
         <v>0.3687234695496014</v>
       </c>
       <c r="DKJ2" t="n">
-        <v>-0</v>
+        <v>0.3687234695496014</v>
       </c>
     </row>
     <row r="3">
@@ -18523,7 +18523,7 @@
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
@@ -18541,7 +18541,7 @@
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AJ3" t="n">
         <v>-0</v>
@@ -18562,7 +18562,7 @@
         <v>-0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AQ3" t="n">
         <v>-0</v>
@@ -18574,7 +18574,7 @@
         <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AU3" t="n">
         <v>-0</v>
@@ -18589,7 +18589,7 @@
         <v>-0</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -18619,13 +18619,13 @@
         <v>-0</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BL3" t="n">
         <v>-0</v>
@@ -18646,7 +18646,7 @@
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
         <v>-0</v>
@@ -18694,25 +18694,25 @@
         <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
         <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>-0</v>
@@ -18721,28 +18721,28 @@
         <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CR3" t="n">
         <v>-0</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CV3" t="n">
         <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
         <v>-0</v>
@@ -18760,7 +18760,7 @@
         <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
         <v>-0</v>
@@ -18781,10 +18781,10 @@
         <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
         <v>-0</v>
@@ -18796,7 +18796,7 @@
         <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DQ3" t="n">
         <v>-0</v>
@@ -18808,7 +18808,7 @@
         <v>-0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>-0</v>
@@ -18826,7 +18826,7 @@
         <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="EA3" t="n">
         <v>-0</v>
@@ -18841,7 +18841,7 @@
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="EF3" t="n">
         <v>-0</v>
@@ -18856,7 +18856,7 @@
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="EK3" t="n">
         <v>-0</v>
@@ -18865,19 +18865,19 @@
         <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
         <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ER3" t="n">
         <v>-0</v>
@@ -18922,7 +18922,7 @@
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
         <v>-0</v>
@@ -18946,7 +18946,7 @@
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
         <v>-0</v>
@@ -18976,7 +18976,7 @@
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
         <v>-0</v>
@@ -19000,7 +19000,7 @@
         <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="GG3" t="n">
         <v>-0</v>
@@ -19084,7 +19084,7 @@
         <v>-0</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="HI3" t="n">
         <v>-0</v>
@@ -19246,7 +19246,7 @@
         <v>-0</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="JK3" t="n">
         <v>-0</v>
@@ -19288,7 +19288,7 @@
         <v>-0</v>
       </c>
       <c r="JX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="JY3" t="n">
         <v>-0</v>
@@ -19309,7 +19309,7 @@
         <v>-0</v>
       </c>
       <c r="KE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="KF3" t="n">
         <v>-0</v>
@@ -19369,7 +19369,7 @@
         <v>-0</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="KZ3" t="n">
         <v>-0</v>
@@ -19381,7 +19381,7 @@
         <v>-0</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="LD3" t="n">
         <v>-0</v>
@@ -19411,7 +19411,7 @@
         <v>-0</v>
       </c>
       <c r="LM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="LN3" t="n">
         <v>-0</v>
@@ -19420,7 +19420,7 @@
         <v>-0</v>
       </c>
       <c r="LP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="LQ3" t="n">
         <v>-0</v>
@@ -19435,19 +19435,19 @@
         <v>-0</v>
       </c>
       <c r="LU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="LV3" t="n">
         <v>-0</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="LX3" t="n">
         <v>-0</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="LZ3" t="n">
         <v>-0</v>
@@ -19486,7 +19486,7 @@
         <v>-0</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="MM3" t="n">
         <v>-0</v>
@@ -19498,13 +19498,13 @@
         <v>-0</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="MQ3" t="n">
         <v>-0</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="MS3" t="n">
         <v>-0</v>
@@ -19516,7 +19516,7 @@
         <v>-0</v>
       </c>
       <c r="MV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="MW3" t="n">
         <v>-0</v>
@@ -19528,7 +19528,7 @@
         <v>-0</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="NA3" t="n">
         <v>-0</v>
@@ -19543,7 +19543,7 @@
         <v>-0</v>
       </c>
       <c r="NE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="NF3" t="n">
         <v>-0</v>
@@ -19597,7 +19597,7 @@
         <v>-0</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="NX3" t="n">
         <v>-0</v>
@@ -19606,19 +19606,19 @@
         <v>-0</v>
       </c>
       <c r="NZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="OA3" t="n">
         <v>-0</v>
       </c>
       <c r="OB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="OC3" t="n">
         <v>-0</v>
       </c>
       <c r="OD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="OE3" t="n">
         <v>-0</v>
@@ -19633,7 +19633,7 @@
         <v>-0</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="OJ3" t="n">
         <v>-0</v>
@@ -19693,7 +19693,7 @@
         <v>-0</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="PD3" t="n">
         <v>-0</v>
@@ -19714,7 +19714,7 @@
         <v>-0</v>
       </c>
       <c r="PJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="PK3" t="n">
         <v>-0</v>
@@ -19750,7 +19750,7 @@
         <v>-0</v>
       </c>
       <c r="PV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="PW3" t="n">
         <v>-0</v>
@@ -19759,7 +19759,7 @@
         <v>-0</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="PZ3" t="n">
         <v>-0</v>
@@ -19768,7 +19768,7 @@
         <v>-0</v>
       </c>
       <c r="QB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="QC3" t="n">
         <v>-0</v>
@@ -19798,7 +19798,7 @@
         <v>-0</v>
       </c>
       <c r="QL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="QM3" t="n">
         <v>-0</v>
@@ -19828,13 +19828,13 @@
         <v>-0</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="QW3" t="n">
         <v>-0</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="QY3" t="n">
         <v>-0</v>
@@ -19852,13 +19852,13 @@
         <v>-0</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="RE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="RG3" t="n">
         <v>-0</v>
@@ -19936,7 +19936,7 @@
         <v>-0</v>
       </c>
       <c r="SF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="SG3" t="n">
         <v>-0</v>
@@ -19963,13 +19963,13 @@
         <v>-0</v>
       </c>
       <c r="SO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="SP3" t="n">
         <v>-0</v>
       </c>
       <c r="SQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="SR3" t="n">
         <v>-0</v>
@@ -20020,7 +20020,7 @@
         <v>-0</v>
       </c>
       <c r="TH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="TI3" t="n">
         <v>-0</v>
@@ -20068,10 +20068,10 @@
         <v>-0</v>
       </c>
       <c r="TX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="TY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="TZ3" t="n">
         <v>-0</v>
@@ -20080,7 +20080,7 @@
         <v>-0</v>
       </c>
       <c r="UB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="UC3" t="n">
         <v>-0</v>
@@ -20089,7 +20089,7 @@
         <v>-0</v>
       </c>
       <c r="UE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="UF3" t="n">
         <v>-0</v>
@@ -20113,7 +20113,7 @@
         <v>-0</v>
       </c>
       <c r="UM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="UN3" t="n">
         <v>-0</v>
@@ -20140,16 +20140,16 @@
         <v>-0</v>
       </c>
       <c r="UV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="UW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="UX3" t="n">
         <v>-0</v>
       </c>
       <c r="UY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="UZ3" t="n">
         <v>-0</v>
@@ -20161,13 +20161,13 @@
         <v>-0</v>
       </c>
       <c r="VC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="VD3" t="n">
         <v>-0</v>
       </c>
       <c r="VE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="VF3" t="n">
         <v>-0</v>
@@ -20176,7 +20176,7 @@
         <v>-0</v>
       </c>
       <c r="VH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="VI3" t="n">
         <v>-0</v>
@@ -20227,10 +20227,10 @@
         <v>-0</v>
       </c>
       <c r="VY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="VZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="WA3" t="n">
         <v>-0</v>
@@ -20269,7 +20269,7 @@
         <v>-0</v>
       </c>
       <c r="WM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="WN3" t="n">
         <v>-0</v>
@@ -20311,7 +20311,7 @@
         <v>-0</v>
       </c>
       <c r="XA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="XB3" t="n">
         <v>-0</v>
@@ -20332,10 +20332,10 @@
         <v>-0</v>
       </c>
       <c r="XH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="XI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="XJ3" t="n">
         <v>-0</v>
@@ -20344,7 +20344,7 @@
         <v>-0</v>
       </c>
       <c r="XL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="XM3" t="n">
         <v>-0</v>
@@ -20377,13 +20377,13 @@
         <v>-0</v>
       </c>
       <c r="XW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="XX3" t="n">
         <v>-0</v>
       </c>
       <c r="XY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="XZ3" t="n">
         <v>-0</v>
@@ -20440,16 +20440,16 @@
         <v>-0</v>
       </c>
       <c r="YR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="YS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="YT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="YU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="YV3" t="n">
         <v>-0</v>
@@ -20461,7 +20461,7 @@
         <v>-0</v>
       </c>
       <c r="YY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="YZ3" t="n">
         <v>-0</v>
@@ -20497,7 +20497,7 @@
         <v>-0</v>
       </c>
       <c r="ZK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ZL3" t="n">
         <v>-0</v>
@@ -20524,13 +20524,13 @@
         <v>-0</v>
       </c>
       <c r="ZT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ZU3" t="n">
         <v>-0</v>
       </c>
       <c r="ZV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ZW3" t="n">
         <v>-0</v>
@@ -20563,7 +20563,7 @@
         <v>-0</v>
       </c>
       <c r="AAG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AAH3" t="n">
         <v>-0</v>
@@ -20575,7 +20575,7 @@
         <v>-0</v>
       </c>
       <c r="AAK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AAL3" t="n">
         <v>-0</v>
@@ -20632,7 +20632,7 @@
         <v>-0</v>
       </c>
       <c r="ABD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ABE3" t="n">
         <v>-0</v>
@@ -20674,13 +20674,13 @@
         <v>-0</v>
       </c>
       <c r="ABR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ABS3" t="n">
         <v>-0</v>
       </c>
       <c r="ABT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ABU3" t="n">
         <v>-0</v>
@@ -20695,10 +20695,10 @@
         <v>-0</v>
       </c>
       <c r="ABY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ABZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ACA3" t="n">
         <v>-0</v>
@@ -20734,7 +20734,7 @@
         <v>-0</v>
       </c>
       <c r="ACL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ACM3" t="n">
         <v>-0</v>
@@ -20788,7 +20788,7 @@
         <v>-0</v>
       </c>
       <c r="ADD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ADE3" t="n">
         <v>-0</v>
@@ -20845,7 +20845,7 @@
         <v>-0</v>
       </c>
       <c r="ADW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ADX3" t="n">
         <v>-0</v>
@@ -20860,7 +20860,7 @@
         <v>-0</v>
       </c>
       <c r="AEB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AEC3" t="n">
         <v>-0</v>
@@ -20914,10 +20914,10 @@
         <v>-0</v>
       </c>
       <c r="AET3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AEU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AEV3" t="n">
         <v>-0</v>
@@ -20980,7 +20980,7 @@
         <v>-0</v>
       </c>
       <c r="AFP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AFQ3" t="n">
         <v>-0</v>
@@ -20998,7 +20998,7 @@
         <v>-0</v>
       </c>
       <c r="AFV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AFW3" t="n">
         <v>-0</v>
@@ -21034,7 +21034,7 @@
         <v>-0</v>
       </c>
       <c r="AGH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AGI3" t="n">
         <v>-0</v>
@@ -21046,7 +21046,7 @@
         <v>-0</v>
       </c>
       <c r="AGL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AGM3" t="n">
         <v>-0</v>
@@ -21079,7 +21079,7 @@
         <v>-0</v>
       </c>
       <c r="AGW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AGX3" t="n">
         <v>-0</v>
@@ -21088,13 +21088,13 @@
         <v>-0</v>
       </c>
       <c r="AGZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AHA3" t="n">
         <v>-0</v>
       </c>
       <c r="AHB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AHC3" t="n">
         <v>-0</v>
@@ -21103,7 +21103,7 @@
         <v>-0</v>
       </c>
       <c r="AHE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AHF3" t="n">
         <v>-0</v>
@@ -21133,7 +21133,7 @@
         <v>-0</v>
       </c>
       <c r="AHO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AHP3" t="n">
         <v>-0</v>
@@ -21172,7 +21172,7 @@
         <v>-0</v>
       </c>
       <c r="AIB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AIC3" t="n">
         <v>-0</v>
@@ -21181,7 +21181,7 @@
         <v>-0</v>
       </c>
       <c r="AIE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AIF3" t="n">
         <v>-0</v>
@@ -21247,7 +21247,7 @@
         <v>-0</v>
       </c>
       <c r="AJA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AJB3" t="n">
         <v>-0</v>
@@ -21277,7 +21277,7 @@
         <v>-0</v>
       </c>
       <c r="AJK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AJL3" t="n">
         <v>-0</v>
@@ -21304,7 +21304,7 @@
         <v>-0</v>
       </c>
       <c r="AJT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AJU3" t="n">
         <v>-0</v>
@@ -21319,10 +21319,10 @@
         <v>-0</v>
       </c>
       <c r="AJY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AJZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AKA3" t="n">
         <v>-0</v>
@@ -21337,7 +21337,7 @@
         <v>-0</v>
       </c>
       <c r="AKE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AKF3" t="n">
         <v>-0</v>
@@ -21373,7 +21373,7 @@
         <v>-0</v>
       </c>
       <c r="AKQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AKR3" t="n">
         <v>-0</v>
@@ -21418,7 +21418,7 @@
         <v>-0</v>
       </c>
       <c r="ALF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ALG3" t="n">
         <v>-0</v>
@@ -21433,7 +21433,7 @@
         <v>-0</v>
       </c>
       <c r="ALK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ALL3" t="n">
         <v>-0</v>
@@ -21451,7 +21451,7 @@
         <v>-0</v>
       </c>
       <c r="ALQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ALR3" t="n">
         <v>-0</v>
@@ -21484,7 +21484,7 @@
         <v>-0</v>
       </c>
       <c r="AMB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AMC3" t="n">
         <v>-0</v>
@@ -21505,7 +21505,7 @@
         <v>-0</v>
       </c>
       <c r="AMI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AMJ3" t="n">
         <v>-0</v>
@@ -21526,7 +21526,7 @@
         <v>-0</v>
       </c>
       <c r="AMP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AMQ3" t="n">
         <v>-0</v>
@@ -21562,13 +21562,13 @@
         <v>-0</v>
       </c>
       <c r="ANB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ANC3" t="n">
         <v>-0</v>
       </c>
       <c r="AND3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ANE3" t="n">
         <v>-0</v>
@@ -21580,7 +21580,7 @@
         <v>-0</v>
       </c>
       <c r="ANH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ANI3" t="n">
         <v>-0</v>
@@ -21607,7 +21607,7 @@
         <v>-0</v>
       </c>
       <c r="ANQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ANR3" t="n">
         <v>-0</v>
@@ -21616,13 +21616,13 @@
         <v>-0</v>
       </c>
       <c r="ANT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ANU3" t="n">
         <v>-0</v>
       </c>
       <c r="ANV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ANW3" t="n">
         <v>-0</v>
@@ -21655,7 +21655,7 @@
         <v>-0</v>
       </c>
       <c r="AOG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AOH3" t="n">
         <v>-0</v>
@@ -21688,7 +21688,7 @@
         <v>-0</v>
       </c>
       <c r="AOR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AOS3" t="n">
         <v>-0</v>
@@ -21700,7 +21700,7 @@
         <v>-0</v>
       </c>
       <c r="AOV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AOW3" t="n">
         <v>-0</v>
@@ -21727,7 +21727,7 @@
         <v>-0</v>
       </c>
       <c r="APE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="APF3" t="n">
         <v>-0</v>
@@ -21745,7 +21745,7 @@
         <v>-0</v>
       </c>
       <c r="APK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="APL3" t="n">
         <v>-0</v>
@@ -21760,7 +21760,7 @@
         <v>-0</v>
       </c>
       <c r="APP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="APQ3" t="n">
         <v>-0</v>
@@ -21796,7 +21796,7 @@
         <v>-0</v>
       </c>
       <c r="AQB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AQC3" t="n">
         <v>-0</v>
@@ -21808,7 +21808,7 @@
         <v>-0</v>
       </c>
       <c r="AQF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AQG3" t="n">
         <v>-0</v>
@@ -21823,7 +21823,7 @@
         <v>-0</v>
       </c>
       <c r="AQK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AQL3" t="n">
         <v>-0</v>
@@ -21841,7 +21841,7 @@
         <v>-0</v>
       </c>
       <c r="AQQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AQR3" t="n">
         <v>-0</v>
@@ -21868,7 +21868,7 @@
         <v>-0</v>
       </c>
       <c r="AQZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ARA3" t="n">
         <v>-0</v>
@@ -21895,28 +21895,28 @@
         <v>-0</v>
       </c>
       <c r="ARI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ARJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ARK3" t="n">
         <v>-0</v>
       </c>
       <c r="ARL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ARM3" t="n">
         <v>-0</v>
       </c>
       <c r="ARN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ARO3" t="n">
         <v>-0</v>
       </c>
       <c r="ARP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ARQ3" t="n">
         <v>-0</v>
@@ -21946,13 +21946,13 @@
         <v>-0</v>
       </c>
       <c r="ARZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ASA3" t="n">
         <v>-0</v>
       </c>
       <c r="ASB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ASC3" t="n">
         <v>-0</v>
@@ -21985,7 +21985,7 @@
         <v>-0</v>
       </c>
       <c r="ASM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ASN3" t="n">
         <v>-0</v>
@@ -21994,13 +21994,13 @@
         <v>-0</v>
       </c>
       <c r="ASP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ASQ3" t="n">
         <v>-0</v>
       </c>
       <c r="ASR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ASS3" t="n">
         <v>-0</v>
@@ -22042,7 +22042,7 @@
         <v>-0</v>
       </c>
       <c r="ATF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="ATG3" t="n">
         <v>-0</v>
@@ -22081,7 +22081,7 @@
         <v>-0</v>
       </c>
       <c r="ATS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="ATT3" t="n">
         <v>-0</v>
@@ -22123,7 +22123,7 @@
         <v>-0</v>
       </c>
       <c r="AUG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AUH3" t="n">
         <v>-0</v>
@@ -22138,7 +22138,7 @@
         <v>-0</v>
       </c>
       <c r="AUL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AUM3" t="n">
         <v>-0</v>
@@ -22147,19 +22147,19 @@
         <v>-0</v>
       </c>
       <c r="AUO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AUP3" t="n">
         <v>-0</v>
       </c>
       <c r="AUQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AUR3" t="n">
         <v>-0</v>
       </c>
       <c r="AUS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AUT3" t="n">
         <v>-0</v>
@@ -22207,7 +22207,7 @@
         <v>-0</v>
       </c>
       <c r="AVI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AVJ3" t="n">
         <v>-0</v>
@@ -22309,13 +22309,13 @@
         <v>-0</v>
       </c>
       <c r="AWQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AWR3" t="n">
         <v>-0</v>
       </c>
       <c r="AWS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AWT3" t="n">
         <v>-0</v>
@@ -22345,7 +22345,7 @@
         <v>-0</v>
       </c>
       <c r="AXC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AXD3" t="n">
         <v>-0</v>
@@ -22357,19 +22357,19 @@
         <v>-0</v>
       </c>
       <c r="AXG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AXH3" t="n">
         <v>-0</v>
       </c>
       <c r="AXI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AXJ3" t="n">
         <v>-0</v>
       </c>
       <c r="AXK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AXL3" t="n">
         <v>-0</v>
@@ -22420,13 +22420,13 @@
         <v>-0</v>
       </c>
       <c r="AYB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AYC3" t="n">
         <v>-0</v>
       </c>
       <c r="AYD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AYE3" t="n">
         <v>-0</v>
@@ -22456,7 +22456,7 @@
         <v>-0</v>
       </c>
       <c r="AYN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AYO3" t="n">
         <v>-0</v>
@@ -22468,13 +22468,13 @@
         <v>-0</v>
       </c>
       <c r="AYR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AYS3" t="n">
         <v>-0</v>
       </c>
       <c r="AYT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AYU3" t="n">
         <v>-0</v>
@@ -22498,10 +22498,10 @@
         <v>-0</v>
       </c>
       <c r="AZB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AZC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AZD3" t="n">
         <v>-0</v>
@@ -22543,13 +22543,13 @@
         <v>-0</v>
       </c>
       <c r="AZQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AZR3" t="n">
         <v>-0</v>
       </c>
       <c r="AZS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="AZT3" t="n">
         <v>-0</v>
@@ -22561,7 +22561,7 @@
         <v>-0</v>
       </c>
       <c r="AZW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="AZX3" t="n">
         <v>-0</v>
@@ -22570,7 +22570,7 @@
         <v>-0</v>
       </c>
       <c r="AZZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BAA3" t="n">
         <v>-0</v>
@@ -22582,7 +22582,7 @@
         <v>-0</v>
       </c>
       <c r="BAD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BAE3" t="n">
         <v>-0</v>
@@ -22636,13 +22636,13 @@
         <v>-0</v>
       </c>
       <c r="BAV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BAW3" t="n">
         <v>-0</v>
       </c>
       <c r="BAX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BAY3" t="n">
         <v>-0</v>
@@ -22654,7 +22654,7 @@
         <v>-0</v>
       </c>
       <c r="BBB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BBC3" t="n">
         <v>-0</v>
@@ -22684,7 +22684,7 @@
         <v>-0</v>
       </c>
       <c r="BBL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BBM3" t="n">
         <v>-0</v>
@@ -22699,7 +22699,7 @@
         <v>-0</v>
       </c>
       <c r="BBQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BBR3" t="n">
         <v>-0</v>
@@ -22708,13 +22708,13 @@
         <v>-0</v>
       </c>
       <c r="BBT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BBU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BBV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BBW3" t="n">
         <v>-0</v>
@@ -22759,7 +22759,7 @@
         <v>-0</v>
       </c>
       <c r="BCK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BCL3" t="n">
         <v>-0</v>
@@ -22768,25 +22768,25 @@
         <v>-0</v>
       </c>
       <c r="BCN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BCO3" t="n">
         <v>-0</v>
       </c>
       <c r="BCP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BCQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BCR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BCS3" t="n">
         <v>-0</v>
       </c>
       <c r="BCT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BCU3" t="n">
         <v>-0</v>
@@ -22801,7 +22801,7 @@
         <v>-0</v>
       </c>
       <c r="BCY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BCZ3" t="n">
         <v>-0</v>
@@ -22819,13 +22819,13 @@
         <v>-0</v>
       </c>
       <c r="BDE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BDF3" t="n">
         <v>-0</v>
       </c>
       <c r="BDG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BDH3" t="n">
         <v>-0</v>
@@ -22867,7 +22867,7 @@
         <v>-0</v>
       </c>
       <c r="BDU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BDV3" t="n">
         <v>-0</v>
@@ -22900,7 +22900,7 @@
         <v>-0</v>
       </c>
       <c r="BEF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BEG3" t="n">
         <v>-0</v>
@@ -22924,7 +22924,7 @@
         <v>-0</v>
       </c>
       <c r="BEN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BEO3" t="n">
         <v>-0</v>
@@ -22942,7 +22942,7 @@
         <v>-0</v>
       </c>
       <c r="BET3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BEU3" t="n">
         <v>-0</v>
@@ -22951,7 +22951,7 @@
         <v>-0</v>
       </c>
       <c r="BEW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BEX3" t="n">
         <v>-0</v>
@@ -22963,13 +22963,13 @@
         <v>-0</v>
       </c>
       <c r="BFA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BFB3" t="n">
         <v>-0</v>
       </c>
       <c r="BFC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BFD3" t="n">
         <v>-0</v>
@@ -22981,16 +22981,16 @@
         <v>-0</v>
       </c>
       <c r="BFG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BFH3" t="n">
         <v>-0</v>
       </c>
       <c r="BFI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BFJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BFK3" t="n">
         <v>-0</v>
@@ -23038,7 +23038,7 @@
         <v>-0</v>
       </c>
       <c r="BFZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BGA3" t="n">
         <v>-0</v>
@@ -23056,7 +23056,7 @@
         <v>-0</v>
       </c>
       <c r="BGF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BGG3" t="n">
         <v>-0</v>
@@ -23077,7 +23077,7 @@
         <v>-0</v>
       </c>
       <c r="BGM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BGN3" t="n">
         <v>-0</v>
@@ -23101,7 +23101,7 @@
         <v>-0</v>
       </c>
       <c r="BGU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BGV3" t="n">
         <v>-0</v>
@@ -23119,7 +23119,7 @@
         <v>-0</v>
       </c>
       <c r="BHA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BHB3" t="n">
         <v>-0</v>
@@ -23131,7 +23131,7 @@
         <v>-0</v>
       </c>
       <c r="BHE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BHF3" t="n">
         <v>-0</v>
@@ -23143,10 +23143,10 @@
         <v>-0</v>
       </c>
       <c r="BHI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BHJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BHK3" t="n">
         <v>-0</v>
@@ -23158,7 +23158,7 @@
         <v>-0</v>
       </c>
       <c r="BHN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BHO3" t="n">
         <v>-0</v>
@@ -23167,13 +23167,13 @@
         <v>-0</v>
       </c>
       <c r="BHQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BHR3" t="n">
         <v>-0</v>
       </c>
       <c r="BHS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BHT3" t="n">
         <v>-0</v>
@@ -23182,7 +23182,7 @@
         <v>-0</v>
       </c>
       <c r="BHV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BHW3" t="n">
         <v>-0</v>
@@ -23212,10 +23212,10 @@
         <v>-0</v>
       </c>
       <c r="BIF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BIG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BIH3" t="n">
         <v>-0</v>
@@ -23233,7 +23233,7 @@
         <v>-0</v>
       </c>
       <c r="BIM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BIN3" t="n">
         <v>-0</v>
@@ -23248,10 +23248,10 @@
         <v>-0</v>
       </c>
       <c r="BIR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BIS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BIT3" t="n">
         <v>-0</v>
@@ -23260,7 +23260,7 @@
         <v>-0</v>
       </c>
       <c r="BIV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BIW3" t="n">
         <v>-0</v>
@@ -23299,19 +23299,19 @@
         <v>-0</v>
       </c>
       <c r="BJI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BJK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJL3" t="n">
         <v>-0</v>
       </c>
       <c r="BJM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJN3" t="n">
         <v>-0</v>
@@ -23323,19 +23323,19 @@
         <v>-0</v>
       </c>
       <c r="BJQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJR3" t="n">
         <v>-0</v>
       </c>
       <c r="BJS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJT3" t="n">
         <v>-0</v>
       </c>
       <c r="BJU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BJV3" t="n">
         <v>-0</v>
@@ -23362,19 +23362,19 @@
         <v>-0</v>
       </c>
       <c r="BKD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BKE3" t="n">
         <v>-0</v>
       </c>
       <c r="BKF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BKG3" t="n">
         <v>-0</v>
       </c>
       <c r="BKH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BKI3" t="n">
         <v>-0</v>
@@ -23407,7 +23407,7 @@
         <v>-0</v>
       </c>
       <c r="BKS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BKT3" t="n">
         <v>-0</v>
@@ -23425,13 +23425,13 @@
         <v>-0</v>
       </c>
       <c r="BKY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BKZ3" t="n">
         <v>-0</v>
       </c>
       <c r="BLA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BLB3" t="n">
         <v>-0</v>
@@ -23473,7 +23473,7 @@
         <v>-0</v>
       </c>
       <c r="BLO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BLP3" t="n">
         <v>-0</v>
@@ -23497,7 +23497,7 @@
         <v>-0</v>
       </c>
       <c r="BLW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BLX3" t="n">
         <v>-0</v>
@@ -23506,22 +23506,22 @@
         <v>-0</v>
       </c>
       <c r="BLZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BMA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BMB3" t="n">
         <v>-0</v>
       </c>
       <c r="BMC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BMD3" t="n">
         <v>-0</v>
       </c>
       <c r="BME3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BMF3" t="n">
         <v>-0</v>
@@ -23539,7 +23539,7 @@
         <v>-0</v>
       </c>
       <c r="BMK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BML3" t="n">
         <v>-0</v>
@@ -23551,7 +23551,7 @@
         <v>-0</v>
       </c>
       <c r="BMO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BMP3" t="n">
         <v>-0</v>
@@ -23563,19 +23563,19 @@
         <v>-0</v>
       </c>
       <c r="BMS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BMT3" t="n">
         <v>-0</v>
       </c>
       <c r="BMU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BMV3" t="n">
         <v>-0</v>
       </c>
       <c r="BMW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BMX3" t="n">
         <v>-0</v>
@@ -23614,7 +23614,7 @@
         <v>-0</v>
       </c>
       <c r="BNJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BNK3" t="n">
         <v>-0</v>
@@ -23626,7 +23626,7 @@
         <v>-0</v>
       </c>
       <c r="BNN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BNO3" t="n">
         <v>-0</v>
@@ -23653,7 +23653,7 @@
         <v>-0</v>
       </c>
       <c r="BNW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BNX3" t="n">
         <v>-0</v>
@@ -23665,7 +23665,7 @@
         <v>-0</v>
       </c>
       <c r="BOA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOB3" t="n">
         <v>-0</v>
@@ -23683,7 +23683,7 @@
         <v>-0</v>
       </c>
       <c r="BOG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BOH3" t="n">
         <v>-0</v>
@@ -23713,7 +23713,7 @@
         <v>-0</v>
       </c>
       <c r="BOQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BOR3" t="n">
         <v>-0</v>
@@ -23731,13 +23731,13 @@
         <v>-0</v>
       </c>
       <c r="BOW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BOX3" t="n">
         <v>-0</v>
       </c>
       <c r="BOY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BOZ3" t="n">
         <v>-0</v>
@@ -23749,7 +23749,7 @@
         <v>-0</v>
       </c>
       <c r="BPC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BPD3" t="n">
         <v>-0</v>
@@ -23758,13 +23758,13 @@
         <v>-0</v>
       </c>
       <c r="BPF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BPG3" t="n">
         <v>-0</v>
       </c>
       <c r="BPH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BPI3" t="n">
         <v>-0</v>
@@ -23797,7 +23797,7 @@
         <v>-0</v>
       </c>
       <c r="BPS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BPT3" t="n">
         <v>-0</v>
@@ -23818,7 +23818,7 @@
         <v>-0</v>
       </c>
       <c r="BPZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BQA3" t="n">
         <v>-0</v>
@@ -23854,19 +23854,19 @@
         <v>-0</v>
       </c>
       <c r="BQL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BQM3" t="n">
         <v>-0</v>
       </c>
       <c r="BQN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BQO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BQP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BQQ3" t="n">
         <v>-0</v>
@@ -23884,7 +23884,7 @@
         <v>-0</v>
       </c>
       <c r="BQV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BQW3" t="n">
         <v>-0</v>
@@ -23908,28 +23908,28 @@
         <v>-0</v>
       </c>
       <c r="BRD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BRE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BRF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BRG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BRH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BRI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BRJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BRK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BRL3" t="n">
         <v>-0</v>
@@ -23950,7 +23950,7 @@
         <v>-0</v>
       </c>
       <c r="BRR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BRS3" t="n">
         <v>-0</v>
@@ -23965,7 +23965,7 @@
         <v>-0</v>
       </c>
       <c r="BRW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BRX3" t="n">
         <v>-0</v>
@@ -23974,7 +23974,7 @@
         <v>-0</v>
       </c>
       <c r="BRZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BSA3" t="n">
         <v>-0</v>
@@ -23986,13 +23986,13 @@
         <v>-0</v>
       </c>
       <c r="BSD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BSE3" t="n">
         <v>-0</v>
       </c>
       <c r="BSF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BSG3" t="n">
         <v>-0</v>
@@ -24013,7 +24013,7 @@
         <v>-0</v>
       </c>
       <c r="BSM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BSN3" t="n">
         <v>-0</v>
@@ -24052,7 +24052,7 @@
         <v>-0</v>
       </c>
       <c r="BSZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTA3" t="n">
         <v>-0</v>
@@ -24064,7 +24064,7 @@
         <v>-0</v>
       </c>
       <c r="BTD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BTE3" t="n">
         <v>-0</v>
@@ -24079,13 +24079,13 @@
         <v>-0</v>
       </c>
       <c r="BTI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BTK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTL3" t="n">
         <v>-0</v>
@@ -24097,13 +24097,13 @@
         <v>-0</v>
       </c>
       <c r="BTO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BTP3" t="n">
         <v>-0</v>
       </c>
       <c r="BTQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BTR3" t="n">
         <v>-0</v>
@@ -24112,22 +24112,22 @@
         <v>-0</v>
       </c>
       <c r="BTT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTU3" t="n">
         <v>-0</v>
       </c>
       <c r="BTV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTW3" t="n">
         <v>-0</v>
       </c>
       <c r="BTX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BTY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BTZ3" t="n">
         <v>-0</v>
@@ -24142,7 +24142,7 @@
         <v>-0</v>
       </c>
       <c r="BUD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BUE3" t="n">
         <v>-0</v>
@@ -24166,7 +24166,7 @@
         <v>-0</v>
       </c>
       <c r="BUL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUM3" t="n">
         <v>-0</v>
@@ -24184,7 +24184,7 @@
         <v>-0</v>
       </c>
       <c r="BUR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUS3" t="n">
         <v>-0</v>
@@ -24193,7 +24193,7 @@
         <v>-0</v>
       </c>
       <c r="BUU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BUV3" t="n">
         <v>-0</v>
@@ -24202,7 +24202,7 @@
         <v>-0</v>
       </c>
       <c r="BUX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BUY3" t="n">
         <v>-0</v>
@@ -24217,25 +24217,25 @@
         <v>-0</v>
       </c>
       <c r="BVC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVE3" t="n">
         <v>-0</v>
       </c>
       <c r="BVF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVG3" t="n">
         <v>-0</v>
       </c>
       <c r="BVH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVJ3" t="n">
         <v>-0</v>
@@ -24256,13 +24256,13 @@
         <v>-0</v>
       </c>
       <c r="BVP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BVR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BVS3" t="n">
         <v>-0</v>
@@ -24271,13 +24271,13 @@
         <v>-0</v>
       </c>
       <c r="BVU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVV3" t="n">
         <v>-0</v>
       </c>
       <c r="BVW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BVX3" t="n">
         <v>-0</v>
@@ -24301,19 +24301,19 @@
         <v>-0</v>
       </c>
       <c r="BWE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWF3" t="n">
         <v>-0</v>
       </c>
       <c r="BWG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWH3" t="n">
         <v>-0</v>
       </c>
       <c r="BWI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWJ3" t="n">
         <v>-0</v>
@@ -24331,10 +24331,10 @@
         <v>-0</v>
       </c>
       <c r="BWO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BWP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWQ3" t="n">
         <v>-0</v>
@@ -24346,19 +24346,19 @@
         <v>-0</v>
       </c>
       <c r="BWT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWU3" t="n">
         <v>-0</v>
       </c>
       <c r="BWV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWW3" t="n">
         <v>-0</v>
       </c>
       <c r="BWX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BWY3" t="n">
         <v>-0</v>
@@ -24385,7 +24385,7 @@
         <v>-0</v>
       </c>
       <c r="BXG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BXH3" t="n">
         <v>-0</v>
@@ -24397,7 +24397,7 @@
         <v>-0</v>
       </c>
       <c r="BXK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BXL3" t="n">
         <v>-0</v>
@@ -24415,19 +24415,19 @@
         <v>-0</v>
       </c>
       <c r="BXQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BXR3" t="n">
         <v>-0</v>
       </c>
       <c r="BXS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BXT3" t="n">
         <v>-0</v>
       </c>
       <c r="BXU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BXV3" t="n">
         <v>-0</v>
@@ -24457,40 +24457,40 @@
         <v>-0</v>
       </c>
       <c r="BYE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BYF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYG3" t="n">
         <v>-0</v>
       </c>
       <c r="BYH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYI3" t="n">
         <v>-0</v>
       </c>
       <c r="BYJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYK3" t="n">
         <v>-0</v>
       </c>
       <c r="BYL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BYM3" t="n">
         <v>-0</v>
       </c>
       <c r="BYN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYO3" t="n">
         <v>-0</v>
       </c>
       <c r="BYP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BYQ3" t="n">
         <v>-0</v>
@@ -24502,7 +24502,7 @@
         <v>-0</v>
       </c>
       <c r="BYT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BYU3" t="n">
         <v>-0</v>
@@ -24520,13 +24520,13 @@
         <v>-0</v>
       </c>
       <c r="BYZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BZA3" t="n">
         <v>-0</v>
       </c>
       <c r="BZB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BZC3" t="n">
         <v>-0</v>
@@ -24559,31 +24559,31 @@
         <v>-0</v>
       </c>
       <c r="BZM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BZN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BZO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BZP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BZQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BZR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BZS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BZT3" t="n">
         <v>-0</v>
       </c>
       <c r="BZU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="BZV3" t="n">
         <v>-0</v>
@@ -24592,19 +24592,19 @@
         <v>-0</v>
       </c>
       <c r="BZX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="BZY3" t="n">
         <v>-0</v>
       </c>
       <c r="BZZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAA3" t="n">
         <v>-0</v>
       </c>
       <c r="CAB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAC3" t="n">
         <v>-0</v>
@@ -24616,19 +24616,19 @@
         <v>-0</v>
       </c>
       <c r="CAF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAG3" t="n">
         <v>-0</v>
       </c>
       <c r="CAH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAK3" t="n">
         <v>-0</v>
@@ -24652,10 +24652,10 @@
         <v>-0</v>
       </c>
       <c r="CAR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CAT3" t="n">
         <v>-0</v>
@@ -24673,7 +24673,7 @@
         <v>-0</v>
       </c>
       <c r="CAY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CAZ3" t="n">
         <v>-0</v>
@@ -24688,7 +24688,7 @@
         <v>-0</v>
       </c>
       <c r="CBD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBE3" t="n">
         <v>-0</v>
@@ -24706,7 +24706,7 @@
         <v>-0</v>
       </c>
       <c r="CBJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CBK3" t="n">
         <v>-0</v>
@@ -24721,13 +24721,13 @@
         <v>-0</v>
       </c>
       <c r="CBO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBP3" t="n">
         <v>-0</v>
       </c>
       <c r="CBQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CBR3" t="n">
         <v>-0</v>
@@ -24754,7 +24754,7 @@
         <v>-0</v>
       </c>
       <c r="CBZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CCA3" t="n">
         <v>-0</v>
@@ -24763,34 +24763,34 @@
         <v>-0</v>
       </c>
       <c r="CCC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCD3" t="n">
         <v>-0</v>
       </c>
       <c r="CCE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCF3" t="n">
         <v>-0</v>
       </c>
       <c r="CCG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCH3" t="n">
         <v>-0</v>
       </c>
       <c r="CCI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCJ3" t="n">
         <v>-0</v>
       </c>
       <c r="CCK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CCL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCM3" t="n">
         <v>-0</v>
@@ -24805,13 +24805,13 @@
         <v>-0</v>
       </c>
       <c r="CCQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCR3" t="n">
         <v>-0</v>
       </c>
       <c r="CCS3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CCT3" t="n">
         <v>-0</v>
@@ -24826,7 +24826,7 @@
         <v>-0</v>
       </c>
       <c r="CCX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CCY3" t="n">
         <v>-0</v>
@@ -24847,28 +24847,28 @@
         <v>-0</v>
       </c>
       <c r="CDE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDF3" t="n">
         <v>-0</v>
       </c>
       <c r="CDG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDH3" t="n">
         <v>-0</v>
       </c>
       <c r="CDI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CDL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDM3" t="n">
         <v>-0</v>
@@ -24886,19 +24886,19 @@
         <v>-0</v>
       </c>
       <c r="CDR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDS3" t="n">
         <v>-0</v>
       </c>
       <c r="CDT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDU3" t="n">
         <v>-0</v>
       </c>
       <c r="CDV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CDW3" t="n">
         <v>-0</v>
@@ -24910,13 +24910,13 @@
         <v>-0</v>
       </c>
       <c r="CDZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CEA3" t="n">
         <v>-0</v>
       </c>
       <c r="CEB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CEC3" t="n">
         <v>-0</v>
@@ -24940,7 +24940,7 @@
         <v>-0</v>
       </c>
       <c r="CEJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CEK3" t="n">
         <v>-0</v>
@@ -24961,25 +24961,25 @@
         <v>-0</v>
       </c>
       <c r="CEQ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CER3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CES3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CET3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CEU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CEV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CEW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CEX3" t="n">
         <v>-0</v>
@@ -24994,10 +24994,10 @@
         <v>-0</v>
       </c>
       <c r="CFB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFD3" t="n">
         <v>-0</v>
@@ -25018,49 +25018,49 @@
         <v>-0</v>
       </c>
       <c r="CFJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFL3" t="n">
         <v>-0</v>
       </c>
       <c r="CFM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFN3" t="n">
         <v>-0</v>
       </c>
       <c r="CFO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFQ3" t="n">
         <v>-0</v>
       </c>
       <c r="CFR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFS3" t="n">
         <v>-0</v>
       </c>
       <c r="CFT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CFU3" t="n">
         <v>-0</v>
       </c>
       <c r="CFV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFW3" t="n">
         <v>-0</v>
       </c>
       <c r="CFX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CFY3" t="n">
         <v>-0</v>
@@ -25072,7 +25072,7 @@
         <v>-0</v>
       </c>
       <c r="CGB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGC3" t="n">
         <v>-0</v>
@@ -25084,7 +25084,7 @@
         <v>-0</v>
       </c>
       <c r="CGF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CGG3" t="n">
         <v>-0</v>
@@ -25096,7 +25096,7 @@
         <v>-0</v>
       </c>
       <c r="CGJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGK3" t="n">
         <v>-0</v>
@@ -25126,19 +25126,19 @@
         <v>-0</v>
       </c>
       <c r="CGT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CGU3" t="n">
         <v>-0</v>
       </c>
       <c r="CGV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CGW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CGX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CGY3" t="n">
         <v>-0</v>
@@ -25147,13 +25147,13 @@
         <v>-0</v>
       </c>
       <c r="CHA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHB3" t="n">
         <v>-0</v>
       </c>
       <c r="CHC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHD3" t="n">
         <v>-0</v>
@@ -25165,13 +25165,13 @@
         <v>-0</v>
       </c>
       <c r="CHG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CHH3" t="n">
         <v>-0</v>
       </c>
       <c r="CHI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHJ3" t="n">
         <v>-0</v>
@@ -25183,19 +25183,19 @@
         <v>-0</v>
       </c>
       <c r="CHM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHN3" t="n">
         <v>-0</v>
       </c>
       <c r="CHO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CHQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHR3" t="n">
         <v>-0</v>
@@ -25207,7 +25207,7 @@
         <v>-0</v>
       </c>
       <c r="CHU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHV3" t="n">
         <v>-0</v>
@@ -25219,13 +25219,13 @@
         <v>-0</v>
       </c>
       <c r="CHY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CHZ3" t="n">
         <v>-0</v>
       </c>
       <c r="CIA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIB3" t="n">
         <v>-0</v>
@@ -25237,7 +25237,7 @@
         <v>-0</v>
       </c>
       <c r="CIE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIF3" t="n">
         <v>-0</v>
@@ -25258,10 +25258,10 @@
         <v>-0</v>
       </c>
       <c r="CIL3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CIN3" t="n">
         <v>-0</v>
@@ -25288,7 +25288,7 @@
         <v>-0</v>
       </c>
       <c r="CIV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CIW3" t="n">
         <v>-0</v>
@@ -25300,7 +25300,7 @@
         <v>-0</v>
       </c>
       <c r="CIZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJA3" t="n">
         <v>-0</v>
@@ -25318,7 +25318,7 @@
         <v>-0</v>
       </c>
       <c r="CJF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJG3" t="n">
         <v>-0</v>
@@ -25330,7 +25330,7 @@
         <v>-0</v>
       </c>
       <c r="CJJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CJK3" t="n">
         <v>-0</v>
@@ -25342,7 +25342,7 @@
         <v>-0</v>
       </c>
       <c r="CJN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CJO3" t="n">
         <v>-0</v>
@@ -25354,13 +25354,13 @@
         <v>-0</v>
       </c>
       <c r="CJR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJS3" t="n">
         <v>-0</v>
       </c>
       <c r="CJT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CJU3" t="n">
         <v>-0</v>
@@ -25381,31 +25381,31 @@
         <v>-0</v>
       </c>
       <c r="CKA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKB3" t="n">
         <v>-0</v>
       </c>
       <c r="CKC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKD3" t="n">
         <v>-0</v>
       </c>
       <c r="CKE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKF3" t="n">
         <v>-0</v>
       </c>
       <c r="CKG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CKH3" t="n">
         <v>-0</v>
       </c>
       <c r="CKI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKJ3" t="n">
         <v>-0</v>
@@ -25414,13 +25414,13 @@
         <v>-0</v>
       </c>
       <c r="CKL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKM3" t="n">
         <v>-0</v>
       </c>
       <c r="CKN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CKO3" t="n">
         <v>-0</v>
@@ -25432,19 +25432,19 @@
         <v>-0</v>
       </c>
       <c r="CKR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CKS3" t="n">
         <v>-0</v>
       </c>
       <c r="CKT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CKU3" t="n">
         <v>-0</v>
       </c>
       <c r="CKV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CKW3" t="n">
         <v>-0</v>
@@ -25468,13 +25468,13 @@
         <v>-0</v>
       </c>
       <c r="CLD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CLE3" t="n">
         <v>-0</v>
       </c>
       <c r="CLF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CLG3" t="n">
         <v>-0</v>
@@ -25492,13 +25492,13 @@
         <v>-0</v>
       </c>
       <c r="CLL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CLM3" t="n">
         <v>-0</v>
       </c>
       <c r="CLN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CLO3" t="n">
         <v>-0</v>
@@ -25510,19 +25510,19 @@
         <v>-0</v>
       </c>
       <c r="CLR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CLS3" t="n">
         <v>-0</v>
       </c>
       <c r="CLT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CLU3" t="n">
         <v>-0</v>
       </c>
       <c r="CLV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CLW3" t="n">
         <v>-0</v>
@@ -25534,7 +25534,7 @@
         <v>-0</v>
       </c>
       <c r="CLZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMA3" t="n">
         <v>-0</v>
@@ -25546,7 +25546,7 @@
         <v>-0</v>
       </c>
       <c r="CMD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CME3" t="n">
         <v>-0</v>
@@ -25558,31 +25558,31 @@
         <v>-0</v>
       </c>
       <c r="CMH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMI3" t="n">
         <v>-0</v>
       </c>
       <c r="CMJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMK3" t="n">
         <v>-0</v>
       </c>
       <c r="CML3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMM3" t="n">
         <v>-0</v>
       </c>
       <c r="CMN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMO3" t="n">
         <v>-0</v>
       </c>
       <c r="CMP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMQ3" t="n">
         <v>-0</v>
@@ -25597,7 +25597,7 @@
         <v>-0</v>
       </c>
       <c r="CMU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CMV3" t="n">
         <v>-0</v>
@@ -25609,7 +25609,7 @@
         <v>-0</v>
       </c>
       <c r="CMY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CMZ3" t="n">
         <v>-0</v>
@@ -25621,7 +25621,7 @@
         <v>-0</v>
       </c>
       <c r="CNC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CND3" t="n">
         <v>-0</v>
@@ -25633,7 +25633,7 @@
         <v>-0</v>
       </c>
       <c r="CNG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNH3" t="n">
         <v>-0</v>
@@ -25645,13 +25645,13 @@
         <v>-0</v>
       </c>
       <c r="CNK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNL3" t="n">
         <v>-0</v>
       </c>
       <c r="CNM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNN3" t="n">
         <v>-0</v>
@@ -25663,16 +25663,16 @@
         <v>-0</v>
       </c>
       <c r="CNQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CNR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNS3" t="n">
         <v>-0</v>
       </c>
       <c r="CNT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNU3" t="n">
         <v>-0</v>
@@ -25681,13 +25681,13 @@
         <v>-0</v>
       </c>
       <c r="CNW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CNX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CNY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CNZ3" t="n">
         <v>-0</v>
@@ -25696,7 +25696,7 @@
         <v>-0</v>
       </c>
       <c r="COB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="COC3" t="n">
         <v>-0</v>
@@ -25732,7 +25732,7 @@
         <v>-0</v>
       </c>
       <c r="CON3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="COO3" t="n">
         <v>-0</v>
@@ -25744,13 +25744,13 @@
         <v>-0</v>
       </c>
       <c r="COR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="COS3" t="n">
         <v>-0</v>
       </c>
       <c r="COT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="COU3" t="n">
         <v>-0</v>
@@ -25762,7 +25762,7 @@
         <v>-0</v>
       </c>
       <c r="COX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="COY3" t="n">
         <v>-0</v>
@@ -25813,7 +25813,7 @@
         <v>-0</v>
       </c>
       <c r="CPO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CPP3" t="n">
         <v>-0</v>
@@ -25825,34 +25825,34 @@
         <v>-0</v>
       </c>
       <c r="CPS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CPT3" t="n">
         <v>-0</v>
       </c>
       <c r="CPU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CPV3" t="n">
         <v>-0</v>
       </c>
       <c r="CPW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CPX3" t="n">
         <v>-0</v>
       </c>
       <c r="CPY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CPZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQC3" t="n">
         <v>-0</v>
@@ -25873,13 +25873,13 @@
         <v>-0</v>
       </c>
       <c r="CQI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQJ3" t="n">
         <v>-0</v>
       </c>
       <c r="CQK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQL3" t="n">
         <v>-0</v>
@@ -25891,7 +25891,7 @@
         <v>-0</v>
       </c>
       <c r="CQO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQP3" t="n">
         <v>-0</v>
@@ -25903,7 +25903,7 @@
         <v>-0</v>
       </c>
       <c r="CQS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CQT3" t="n">
         <v>-0</v>
@@ -25915,13 +25915,13 @@
         <v>-0</v>
       </c>
       <c r="CQW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQX3" t="n">
         <v>-0</v>
       </c>
       <c r="CQY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CQZ3" t="n">
         <v>-0</v>
@@ -25933,7 +25933,7 @@
         <v>-0</v>
       </c>
       <c r="CRC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRD3" t="n">
         <v>-0</v>
@@ -25945,25 +25945,25 @@
         <v>-0</v>
       </c>
       <c r="CRG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRH3" t="n">
         <v>-0</v>
       </c>
       <c r="CRI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CRJ3" t="n">
         <v>-0</v>
       </c>
       <c r="CRK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CRL3" t="n">
         <v>-0</v>
       </c>
       <c r="CRM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CRN3" t="n">
         <v>-0</v>
@@ -25978,7 +25978,7 @@
         <v>-0</v>
       </c>
       <c r="CRR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CRS3" t="n">
         <v>-0</v>
@@ -26002,13 +26002,13 @@
         <v>-0</v>
       </c>
       <c r="CRZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CSA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSB3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CSC3" t="n">
         <v>-0</v>
@@ -26023,7 +26023,7 @@
         <v>-0</v>
       </c>
       <c r="CSG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSH3" t="n">
         <v>-0</v>
@@ -26035,37 +26035,37 @@
         <v>-0</v>
       </c>
       <c r="CSK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CSL3" t="n">
         <v>-0</v>
       </c>
       <c r="CSM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CSN3" t="n">
         <v>-0</v>
       </c>
       <c r="CSO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CSP3" t="n">
         <v>-0</v>
       </c>
       <c r="CSQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSR3" t="n">
         <v>-0</v>
       </c>
       <c r="CSS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CST3" t="n">
         <v>-0</v>
       </c>
       <c r="CSU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CSV3" t="n">
         <v>-0</v>
@@ -26095,13 +26095,13 @@
         <v>-0</v>
       </c>
       <c r="CTE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CTF3" t="n">
         <v>-0</v>
       </c>
       <c r="CTG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CTH3" t="n">
         <v>-0</v>
@@ -26110,7 +26110,7 @@
         <v>-0</v>
       </c>
       <c r="CTJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CTK3" t="n">
         <v>-0</v>
@@ -26128,13 +26128,13 @@
         <v>-0</v>
       </c>
       <c r="CTP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CTQ3" t="n">
         <v>-0</v>
       </c>
       <c r="CTR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CTS3" t="n">
         <v>-0</v>
@@ -26152,13 +26152,13 @@
         <v>-0</v>
       </c>
       <c r="CTX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CTY3" t="n">
         <v>-0</v>
       </c>
       <c r="CTZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUA3" t="n">
         <v>-0</v>
@@ -26185,7 +26185,7 @@
         <v>-0</v>
       </c>
       <c r="CUI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUJ3" t="n">
         <v>-0</v>
@@ -26194,16 +26194,16 @@
         <v>-0</v>
       </c>
       <c r="CUL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CUM3" t="n">
         <v>-0</v>
       </c>
       <c r="CUN3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CUO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUP3" t="n">
         <v>-0</v>
@@ -26215,13 +26215,13 @@
         <v>-0</v>
       </c>
       <c r="CUS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUT3" t="n">
         <v>-0</v>
       </c>
       <c r="CUU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUV3" t="n">
         <v>-0</v>
@@ -26230,40 +26230,40 @@
         <v>-0</v>
       </c>
       <c r="CUX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CUY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CUZ3" t="n">
         <v>-0</v>
       </c>
       <c r="CVA3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVB3" t="n">
         <v>-0</v>
       </c>
       <c r="CVC3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVD3" t="n">
         <v>-0</v>
       </c>
       <c r="CVE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVF3" t="n">
         <v>-0</v>
       </c>
       <c r="CVG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVH3" t="n">
         <v>-0</v>
       </c>
       <c r="CVI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CVJ3" t="n">
         <v>-0</v>
@@ -26290,13 +26290,13 @@
         <v>-0</v>
       </c>
       <c r="CVR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVS3" t="n">
         <v>-0</v>
       </c>
       <c r="CVT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CVU3" t="n">
         <v>-0</v>
@@ -26317,7 +26317,7 @@
         <v>-0</v>
       </c>
       <c r="CWA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWB3" t="n">
         <v>-0</v>
@@ -26326,7 +26326,7 @@
         <v>-0</v>
       </c>
       <c r="CWD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWE3" t="n">
         <v>-0</v>
@@ -26338,22 +26338,22 @@
         <v>-0</v>
       </c>
       <c r="CWH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWL3" t="n">
         <v>-0</v>
       </c>
       <c r="CWM3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWN3" t="n">
         <v>-0</v>
@@ -26362,19 +26362,19 @@
         <v>-0</v>
       </c>
       <c r="CWP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWQ3" t="n">
         <v>-0</v>
       </c>
       <c r="CWR3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CWS3" t="n">
         <v>-0</v>
       </c>
       <c r="CWT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWU3" t="n">
         <v>-0</v>
@@ -26389,7 +26389,7 @@
         <v>-0</v>
       </c>
       <c r="CWY3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CWZ3" t="n">
         <v>-0</v>
@@ -26404,19 +26404,19 @@
         <v>-0</v>
       </c>
       <c r="CXD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXE3" t="n">
         <v>-0</v>
       </c>
       <c r="CXF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXG3" t="n">
         <v>-0</v>
       </c>
       <c r="CXH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXI3" t="n">
         <v>-0</v>
@@ -26428,7 +26428,7 @@
         <v>-0</v>
       </c>
       <c r="CXL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXM3" t="n">
         <v>-0</v>
@@ -26440,7 +26440,7 @@
         <v>-0</v>
       </c>
       <c r="CXP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXQ3" t="n">
         <v>-0</v>
@@ -26449,28 +26449,28 @@
         <v>-0</v>
       </c>
       <c r="CXS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CXV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXW3" t="n">
         <v>-0</v>
       </c>
       <c r="CXX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CXY3" t="n">
         <v>-0</v>
       </c>
       <c r="CXZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYA3" t="n">
         <v>-0</v>
@@ -26482,31 +26482,31 @@
         <v>-0</v>
       </c>
       <c r="CYD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYE3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CYF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CYH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYI3" t="n">
         <v>-0</v>
       </c>
       <c r="CYJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYK3" t="n">
         <v>-0</v>
       </c>
       <c r="CYL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYM3" t="n">
         <v>-0</v>
@@ -26527,10 +26527,10 @@
         <v>-0</v>
       </c>
       <c r="CYS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CYT3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CYU3" t="n">
         <v>-0</v>
@@ -26539,7 +26539,7 @@
         <v>-0</v>
       </c>
       <c r="CYW3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CYX3" t="n">
         <v>-0</v>
@@ -26560,34 +26560,34 @@
         <v>-0</v>
       </c>
       <c r="CZD3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZE3" t="n">
         <v>-0</v>
       </c>
       <c r="CZF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZG3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZI3" t="n">
         <v>-0</v>
       </c>
       <c r="CZJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZL3" t="n">
         <v>-0</v>
       </c>
       <c r="CZM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZN3" t="n">
         <v>-0</v>
@@ -26596,22 +26596,22 @@
         <v>-0</v>
       </c>
       <c r="CZP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="CZQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZR3" t="n">
         <v>-0</v>
       </c>
       <c r="CZS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZT3" t="n">
         <v>-0</v>
       </c>
       <c r="CZU3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="CZV3" t="n">
         <v>-0</v>
@@ -26626,7 +26626,7 @@
         <v>-0</v>
       </c>
       <c r="CZZ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DAA3" t="n">
         <v>-0</v>
@@ -26656,7 +26656,7 @@
         <v>-0</v>
       </c>
       <c r="DAJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAK3" t="n">
         <v>-0</v>
@@ -26668,7 +26668,7 @@
         <v>-0</v>
       </c>
       <c r="DAN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAO3" t="n">
         <v>-0</v>
@@ -26698,40 +26698,40 @@
         <v>-0</v>
       </c>
       <c r="DAX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DAY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DAZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBA3" t="n">
         <v>-0</v>
       </c>
       <c r="DBB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DBD3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DBF3" t="n">
         <v>-0</v>
       </c>
       <c r="DBG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DBH3" t="n">
         <v>-0</v>
       </c>
       <c r="DBI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBJ3" t="n">
         <v>-0</v>
@@ -26758,19 +26758,19 @@
         <v>-0</v>
       </c>
       <c r="DBR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBS3" t="n">
         <v>-0</v>
       </c>
       <c r="DBT3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBU3" t="n">
         <v>-0</v>
       </c>
       <c r="DBV3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DBW3" t="n">
         <v>-0</v>
@@ -26779,28 +26779,28 @@
         <v>-0</v>
       </c>
       <c r="DBY3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DBZ3" t="n">
         <v>-0</v>
       </c>
       <c r="DCA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DCB3" t="n">
         <v>-0</v>
       </c>
       <c r="DCC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DCD3" t="n">
         <v>-0</v>
       </c>
       <c r="DCE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DCF3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DCG3" t="n">
         <v>-0</v>
@@ -26830,13 +26830,13 @@
         <v>-0</v>
       </c>
       <c r="DCP3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DCQ3" t="n">
         <v>-0</v>
       </c>
       <c r="DCR3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DCS3" t="n">
         <v>-0</v>
@@ -26854,13 +26854,13 @@
         <v>-0</v>
       </c>
       <c r="DCX3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DCY3" t="n">
         <v>-0</v>
       </c>
       <c r="DCZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DDA3" t="n">
         <v>-0</v>
@@ -26917,7 +26917,7 @@
         <v>-0</v>
       </c>
       <c r="DDS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DDT3" t="n">
         <v>-0</v>
@@ -26926,7 +26926,7 @@
         <v>-0</v>
       </c>
       <c r="DDV3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DDW3" t="n">
         <v>-0</v>
@@ -26938,7 +26938,7 @@
         <v>-0</v>
       </c>
       <c r="DDZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DEA3" t="n">
         <v>-0</v>
@@ -26968,7 +26968,7 @@
         <v>-0</v>
       </c>
       <c r="DEJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DEK3" t="n">
         <v>-0</v>
@@ -27001,13 +27001,13 @@
         <v>-0</v>
       </c>
       <c r="DEU3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DEV3" t="n">
         <v>-0</v>
       </c>
       <c r="DEW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DEX3" t="n">
         <v>-0</v>
@@ -27019,7 +27019,7 @@
         <v>-0</v>
       </c>
       <c r="DFA3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DFB3" t="n">
         <v>-0</v>
@@ -27043,13 +27043,13 @@
         <v>-0</v>
       </c>
       <c r="DFI3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DFJ3" t="n">
         <v>-0</v>
       </c>
       <c r="DFK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DFL3" t="n">
         <v>-0</v>
@@ -27058,10 +27058,10 @@
         <v>-0</v>
       </c>
       <c r="DFN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DFO3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DFP3" t="n">
         <v>-0</v>
@@ -27109,7 +27109,7 @@
         <v>-0</v>
       </c>
       <c r="DGE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DGF3" t="n">
         <v>-0</v>
@@ -27127,7 +27127,7 @@
         <v>-0</v>
       </c>
       <c r="DGK3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DGL3" t="n">
         <v>-0</v>
@@ -27136,7 +27136,7 @@
         <v>-0</v>
       </c>
       <c r="DGN3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DGO3" t="n">
         <v>-0</v>
@@ -27163,7 +27163,7 @@
         <v>-0</v>
       </c>
       <c r="DGW3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DGX3" t="n">
         <v>-0</v>
@@ -27190,46 +27190,46 @@
         <v>-0</v>
       </c>
       <c r="DHF3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DHG3" t="n">
         <v>-0</v>
       </c>
       <c r="DHH3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DHI3" t="n">
         <v>-0</v>
       </c>
       <c r="DHJ3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DHK3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DHL3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DHM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DHN3" t="n">
         <v>-0</v>
       </c>
       <c r="DHO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DHP3" t="n">
         <v>-0</v>
       </c>
       <c r="DHQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DHR3" t="n">
         <v>-0</v>
       </c>
       <c r="DHS3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DHT3" t="n">
         <v>-0</v>
@@ -27256,22 +27256,22 @@
         <v>-0</v>
       </c>
       <c r="DIB3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DIC3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DID3" t="n">
         <v>-0</v>
       </c>
       <c r="DIE3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DIF3" t="n">
         <v>-0</v>
       </c>
       <c r="DIG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DIH3" t="n">
         <v>-0</v>
@@ -27289,19 +27289,19 @@
         <v>-0</v>
       </c>
       <c r="DIM3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DIN3" t="n">
         <v>-0</v>
       </c>
       <c r="DIO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DIP3" t="n">
         <v>-0</v>
       </c>
       <c r="DIQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DIR3" t="n">
         <v>-0</v>
@@ -27322,13 +27322,13 @@
         <v>-0</v>
       </c>
       <c r="DIX3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DIY3" t="n">
         <v>-0</v>
       </c>
       <c r="DIZ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DJA3" t="n">
         <v>-0</v>
@@ -27349,13 +27349,13 @@
         <v>-0</v>
       </c>
       <c r="DJG3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DJH3" t="n">
         <v>-0</v>
       </c>
       <c r="DJI3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DJJ3" t="n">
         <v>-0</v>
@@ -27373,13 +27373,13 @@
         <v>-0</v>
       </c>
       <c r="DJO3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DJP3" t="n">
-        <v>-0</v>
+        <v>0.3986944833435583</v>
       </c>
       <c r="DJQ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DJR3" t="n">
         <v>-0</v>
@@ -27430,13 +27430,13 @@
         <v>-0</v>
       </c>
       <c r="DKH3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
       <c r="DKI3" t="n">
         <v>-0</v>
       </c>
       <c r="DKJ3" t="n">
-        <v>0.3986944833435583</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
